--- a/app/fisierele/an32324.xlsx
+++ b/app/fisierele/an32324.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CLEVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8FAC31CA-4ECD-402A-85E0-2D088326B6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D001E286-FA3D-41EC-BC2D-6A2969F2083B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>Pret</t>
+  </si>
+  <si>
+    <t>test@yahoo.com</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>gaeni iu</t>
+  </si>
+  <si>
+    <t>geaniung1@yahoo.com</t>
+  </si>
+  <si>
+    <t>gr</t>
   </si>
 </sst>
 </file>
@@ -204,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -245,6 +260,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -526,11 +542,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -631,11 +647,60 @@
         <v>155</v>
       </c>
     </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="8">
+        <v>730989179</v>
+      </c>
+      <c r="D3">
+        <v>155</v>
+      </c>
+      <c r="E3">
+        <v>155</v>
+      </c>
+      <c r="F3">
+        <v>155</v>
+      </c>
+      <c r="G3">
+        <v>155</v>
+      </c>
+      <c r="O3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4">
+        <v>120</v>
+      </c>
+      <c r="F4">
+        <v>120</v>
+      </c>
+      <c r="H4">
+        <v>120</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7A0E3923-E8B5-4DED-9F5B-CBCB87BB9304}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{20064C3F-82CC-4F00-AE8C-8A491F56AF29}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{3581A3D9-2892-45B0-867F-73439907C110}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/app/fisierele/an32324.xlsx
+++ b/app/fisierele/an32324.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D001E286-FA3D-41EC-BC2D-6A2969F2083B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A36177-DE3E-47D0-9E3E-1B6F9E2DE9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 3" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -93,14 +93,23 @@
     <t>geaniung1@yahoo.com</t>
   </si>
   <si>
-    <t>gr</t>
+    <t>fhun8@hotmail.com</t>
+  </si>
+  <si>
+    <t>Felicia Huneke</t>
+  </si>
+  <si>
+    <t>dragosdraganescu14@gmail.com</t>
+  </si>
+  <si>
+    <t>Dragos Draganescu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,6 +137,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -219,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -261,6 +276,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -542,11 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,8 +708,42 @@
       <c r="H4">
         <v>120</v>
       </c>
-      <c r="O4" t="s">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="7">
+        <v>7345</v>
+      </c>
+      <c r="D5">
+        <v>135</v>
+      </c>
+      <c r="H5">
+        <v>135</v>
+      </c>
+      <c r="O5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7">
+        <v>333</v>
+      </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="O6">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -699,8 +751,9 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7A0E3923-E8B5-4DED-9F5B-CBCB87BB9304}"/>
     <hyperlink ref="A3" r:id="rId2" xr:uid="{20064C3F-82CC-4F00-AE8C-8A491F56AF29}"/>
     <hyperlink ref="A4" r:id="rId3" xr:uid="{3581A3D9-2892-45B0-867F-73439907C110}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{286E8E58-B3F1-46E8-BD10-E96D6F6B91C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/app/fisierele/an32324.xlsx
+++ b/app/fisierele/an32324.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A36177-DE3E-47D0-9E3E-1B6F9E2DE9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375E5D6E-B074-46E6-AB50-0396D4CC97BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 3" sheetId="1" r:id="rId1"/>
@@ -564,7 +564,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O16" sqref="O16"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/app/fisierele/an32324.xlsx
+++ b/app/fisierele/an32324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375E5D6E-B074-46E6-AB50-0396D4CC97BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98593EFC-9A5C-49DA-95C7-E85A4B796953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -564,7 +564,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
         <v>135</v>
       </c>
       <c r="O5">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">

--- a/app/fisierele/an32324.xlsx
+++ b/app/fisierele/an32324.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 3_2023-2024 ayurveda\pentru IULIAN\Facturi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98593EFC-9A5C-49DA-95C7-E85A4B796953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667493F7-7F68-4BC4-B0A7-6F43FCB5F3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 3" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'plati an 3'!$A$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'plati an 3'!$A$1:$R$81</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="178">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -72,44 +72,504 @@
     <t>Plata iul 2024</t>
   </si>
   <si>
-    <t>ilates@yahoo.com</t>
-  </si>
-  <si>
-    <t>Lates Iulian</t>
-  </si>
-  <si>
-    <t>Pret</t>
-  </si>
-  <si>
-    <t>test@yahoo.com</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>gaeni iu</t>
-  </si>
-  <si>
-    <t>geaniung1@yahoo.com</t>
+    <t>george.bondor@yahoo.com</t>
+  </si>
+  <si>
+    <t>Bondor George</t>
+  </si>
+  <si>
+    <t>geaniung@yahoo.com</t>
+  </si>
+  <si>
+    <t>Zaharia Geanina</t>
+  </si>
+  <si>
+    <t>octavian.stoleru@gmail.com</t>
+  </si>
+  <si>
+    <t>Stoleru Octavian</t>
+  </si>
+  <si>
+    <t>carmenmariananeagu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Neagu Carmen-Mariana</t>
+  </si>
+  <si>
+    <t>sorina_fekeas@yahoo.de</t>
+  </si>
+  <si>
+    <t>Fekeas Sorina</t>
+  </si>
+  <si>
+    <t>daciamighiu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mighiu Dacia Maria</t>
+  </si>
+  <si>
+    <t>dragosdraganescu14@gmail.com</t>
+  </si>
+  <si>
+    <t>Draganescu Florentin Dragos</t>
+  </si>
+  <si>
+    <t>laura120675@gmail.com</t>
+  </si>
+  <si>
+    <t>Ilie Laura</t>
+  </si>
+  <si>
+    <t>irinaaniculae@gmail.com</t>
+  </si>
+  <si>
+    <t>Niculae Irina</t>
+  </si>
+  <si>
+    <t>gabriela.malonyai@gmail.com</t>
+  </si>
+  <si>
+    <t>Malonyai Gabriela Aurora</t>
+  </si>
+  <si>
+    <t>lili_ion@hotmail.com</t>
+  </si>
+  <si>
+    <t>Lili Ion</t>
+  </si>
+  <si>
+    <t>angelavnalbantu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Nalbantu Angela</t>
+  </si>
+  <si>
+    <t>vladescu.rodica@gmail.com</t>
+  </si>
+  <si>
+    <t>Vladescu Rodica</t>
+  </si>
+  <si>
+    <t>constantaculcea@yahoo.com</t>
+  </si>
+  <si>
+    <t>Culcea Constanta</t>
+  </si>
+  <si>
+    <t>diana_mocica@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mocica Diana</t>
+  </si>
+  <si>
+    <t>camiraci@yahoo.com</t>
+  </si>
+  <si>
+    <t>Raceanu Camelia</t>
+  </si>
+  <si>
+    <t>oloiervm@yahoo.com</t>
+  </si>
+  <si>
+    <t>Oloier Violeta</t>
+  </si>
+  <si>
+    <t>rusmaria77@yahoo.com</t>
+  </si>
+  <si>
+    <t>Rus Maria</t>
+  </si>
+  <si>
+    <t>mirbanmusat@gmail.com</t>
+  </si>
+  <si>
+    <t>Musat Mirban</t>
+  </si>
+  <si>
+    <t>diana.panciu@gmail.com</t>
+  </si>
+  <si>
+    <t>Panciu Diana-Valentina</t>
+  </si>
+  <si>
+    <t>ancastancescu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Stancescu Florina Anca</t>
+  </si>
+  <si>
+    <t>mirona55555@yahoo.com</t>
+  </si>
+  <si>
+    <t>Farcasi Mirona</t>
+  </si>
+  <si>
+    <t>loredanagrozea2012@gmail.com</t>
+  </si>
+  <si>
+    <t>Grozea Loredana</t>
+  </si>
+  <si>
+    <t>hb_andrea@yahoo.com</t>
+  </si>
+  <si>
+    <t>Hampel Binder Andrea Eniko</t>
+  </si>
+  <si>
+    <t>maria77ro@yahoo.com</t>
+  </si>
+  <si>
+    <t>Kolarik Annamaria</t>
+  </si>
+  <si>
+    <t>galileafarm@yahoo.com</t>
+  </si>
+  <si>
+    <t>Zayadna Maria</t>
+  </si>
+  <si>
+    <t>kinga_pop@yahoo.com</t>
+  </si>
+  <si>
+    <t>Lenghel Kinga</t>
+  </si>
+  <si>
+    <t>paveldoru@gmail.com</t>
+  </si>
+  <si>
+    <t>Pavel Doru</t>
+  </si>
+  <si>
+    <t>vali.grigore@icloud.com</t>
+  </si>
+  <si>
+    <t>Grigore Valerica</t>
+  </si>
+  <si>
+    <t>mamacopiilor@yahoo.com</t>
+  </si>
+  <si>
+    <t>Hadar Ildiko Antonia</t>
+  </si>
+  <si>
+    <t>ionescuiulian7@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ionescu Dinu Iulian</t>
+  </si>
+  <si>
+    <t>elaapostol@yahoo.com</t>
+  </si>
+  <si>
+    <t>Apostol Mihaela Simona</t>
+  </si>
+  <si>
+    <t>danakiss@gmail.com</t>
+  </si>
+  <si>
+    <t>Kiss Dana</t>
+  </si>
+  <si>
+    <t>sorincsv@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ciurac Sorin Vasile</t>
+  </si>
+  <si>
+    <t>mariasorial.ayurveda@gmail.com</t>
+  </si>
+  <si>
+    <t>Sorial Maria</t>
+  </si>
+  <si>
+    <t>alexandra.soveja@yahoo.ro</t>
+  </si>
+  <si>
+    <t>Enachescu Alexandra</t>
+  </si>
+  <si>
+    <t>leonte_gaby@yahoo.com</t>
+  </si>
+  <si>
+    <t>Leonte Gabriela Lacramioara</t>
+  </si>
+  <si>
+    <t>clnicolescu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Nicolescu Carmen Leana</t>
+  </si>
+  <si>
+    <t>dorinacarp@yahoo.ca</t>
+  </si>
+  <si>
+    <t>Carp Dorina</t>
+  </si>
+  <si>
+    <t>bright555health@gmail.com</t>
+  </si>
+  <si>
+    <t>Dragan Despina</t>
+  </si>
+  <si>
+    <t>delia2211@gmail.com</t>
+  </si>
+  <si>
+    <t>Rusu Delia Mihaela</t>
+  </si>
+  <si>
+    <t>ed_firul_ariadnei@yahoo.com</t>
+  </si>
+  <si>
+    <t>Bazavan Ruxandra Ellana</t>
+  </si>
+  <si>
+    <t>d_daniella_r@yahoo.com</t>
+  </si>
+  <si>
+    <t>Racoti Daniela</t>
+  </si>
+  <si>
+    <t>vallystefan@gmail.com</t>
+  </si>
+  <si>
+    <t>Stefan Valentina</t>
   </si>
   <si>
     <t>fhun8@hotmail.com</t>
   </si>
   <si>
-    <t>Felicia Huneke</t>
-  </si>
-  <si>
-    <t>dragosdraganescu14@gmail.com</t>
-  </si>
-  <si>
-    <t>Dragos Draganescu</t>
+    <t>Hunecke Felicia</t>
+  </si>
+  <si>
+    <t>mimigorga@yahoo.com</t>
+  </si>
+  <si>
+    <t>Gorga Mariana</t>
+  </si>
+  <si>
+    <t>dan_moldovan@yahoo.com</t>
+  </si>
+  <si>
+    <t>Moldovan Dan</t>
+  </si>
+  <si>
+    <t>viomih@yahoo.com</t>
+  </si>
+  <si>
+    <t>Simion Viorica</t>
+  </si>
+  <si>
+    <t>condratdaniela@yahoo.com</t>
+  </si>
+  <si>
+    <t>Condrat Daniela</t>
+  </si>
+  <si>
+    <t>gabriela_georgeta@yahoo.com</t>
+  </si>
+  <si>
+    <t>Corocaescu Gabriela</t>
+  </si>
+  <si>
+    <t>sublima.somacentre@gmail.com</t>
+  </si>
+  <si>
+    <t>Istrate Diana</t>
+  </si>
+  <si>
+    <t>henriettamagyar@yahoo.com</t>
+  </si>
+  <si>
+    <t>Magyar Henrietta</t>
+  </si>
+  <si>
+    <t>simoneta7576@gmail.com</t>
+  </si>
+  <si>
+    <t>Muresan Simona</t>
+  </si>
+  <si>
+    <t>oanacovaliu89@gmail.com</t>
+  </si>
+  <si>
+    <t>Covaliu Oana Maria</t>
+  </si>
+  <si>
+    <t>dan_fara@yahoo.com</t>
+  </si>
+  <si>
+    <t>Fara Dan</t>
+  </si>
+  <si>
+    <t>gabichim1@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ichim Gabriela</t>
+  </si>
+  <si>
+    <t>rodicaorosz21dan@yahoo.com</t>
+  </si>
+  <si>
+    <t>Orosz Rodica</t>
+  </si>
+  <si>
+    <t>uviorica@gmail.com</t>
+  </si>
+  <si>
+    <t>Malai Ungurean Viorica</t>
+  </si>
+  <si>
+    <t>ttini.iordan@gmail.com</t>
+  </si>
+  <si>
+    <t>Iordan Ttini</t>
+  </si>
+  <si>
+    <t>doinitakineto@yahoo.com</t>
+  </si>
+  <si>
+    <t>Trifan Doinita Blandinela</t>
+  </si>
+  <si>
+    <t>bogdan.claudia_t@yahoo.com</t>
+  </si>
+  <si>
+    <t>Gherase Claudia</t>
+  </si>
+  <si>
+    <t>catagil76@gmail.com</t>
+  </si>
+  <si>
+    <t>Miclos Gina</t>
+  </si>
+  <si>
+    <t>roalexis71@gmail.com</t>
+  </si>
+  <si>
+    <t>Nechit Romulus</t>
+  </si>
+  <si>
+    <t>cristinasanduv87@gmail.com</t>
+  </si>
+  <si>
+    <t>Sandu Cristina</t>
+  </si>
+  <si>
+    <t>tzaloj@yahoo.com</t>
+  </si>
+  <si>
+    <t>Zaloj Tatiana</t>
+  </si>
+  <si>
+    <t>lenavasvari@yahoo.com</t>
+  </si>
+  <si>
+    <t>Vasvari Ileana</t>
+  </si>
+  <si>
+    <t>veronica.doni@gmail.com</t>
+  </si>
+  <si>
+    <t>Doni Veronica</t>
+  </si>
+  <si>
+    <t>elvira.munteanu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Munteanu Elvira</t>
+  </si>
+  <si>
+    <t>olga_n22@inbox.ru</t>
+  </si>
+  <si>
+    <t>Novojen Olga</t>
+  </si>
+  <si>
+    <t>valentinamaria108@gmail.com</t>
+  </si>
+  <si>
+    <t>Lankelin Valentina Maria</t>
+  </si>
+  <si>
+    <t>marinescurebecca4@gmail.com</t>
+  </si>
+  <si>
+    <t>Marinescu Rebecca Ana</t>
+  </si>
+  <si>
+    <t>aurvasilica@mail.ru</t>
+  </si>
+  <si>
+    <t>Vasilica Aurelia</t>
+  </si>
+  <si>
+    <t>florynn85@yahoo.com</t>
+  </si>
+  <si>
+    <t>Done Florin</t>
+  </si>
+  <si>
+    <t>ancag2@yahoo.com</t>
+  </si>
+  <si>
+    <t>Gurau Anca</t>
+  </si>
+  <si>
+    <t>boisteanuisabela@yahoo.com</t>
+  </si>
+  <si>
+    <t>Boisteanu Isabela</t>
+  </si>
+  <si>
+    <t>anitta_ro@yahoo.com</t>
+  </si>
+  <si>
+    <t>Balaceanu Tania</t>
+  </si>
+  <si>
+    <t>lidiaistodorescu@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Istodorescu Lidia</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>nu trebuie</t>
+  </si>
+  <si>
+    <t>Factura iun 2024</t>
+  </si>
+  <si>
+    <t>Are cont pe site</t>
+  </si>
+  <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>Are actualiz date site</t>
+  </si>
+  <si>
+    <t>Prezenta 30 mai</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>danaiza2000@yahoo.com</t>
+  </si>
+  <si>
+    <t>Georghiou Izabel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +591,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -140,12 +606,41 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF212529"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF1D2228"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,8 +659,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -182,6 +713,21 @@
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
       </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
@@ -219,36 +765,142 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FFCCCCCC"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -260,24 +912,200 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,22 +1388,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" customWidth="1"/>
+    <col min="17" max="17" width="10.90625" customWidth="1"/>
+    <col min="18" max="18" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,145 +1446,3582 @@
       <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="P1" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q1" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="R1" s="46" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12">
+        <v>728717849</v>
+      </c>
+      <c r="D2" s="13">
+        <v>155</v>
+      </c>
+      <c r="E2" s="14">
+        <v>155</v>
+      </c>
+      <c r="F2" s="14">
+        <v>155</v>
+      </c>
+      <c r="G2" s="14">
+        <v>155</v>
+      </c>
+      <c r="H2" s="14">
+        <v>155</v>
+      </c>
+      <c r="I2" s="14">
+        <v>155</v>
+      </c>
+      <c r="J2" s="14">
+        <v>155</v>
+      </c>
+      <c r="K2" s="14">
+        <v>155</v>
+      </c>
+      <c r="L2" s="14">
+        <v>155</v>
+      </c>
+      <c r="M2" s="32">
+        <v>155</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="48"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="9">
+        <v>722358649</v>
+      </c>
+      <c r="D3" s="23">
+        <v>155</v>
+      </c>
+      <c r="E3" s="24">
+        <v>155</v>
+      </c>
+      <c r="F3" s="24">
+        <v>155</v>
+      </c>
+      <c r="G3" s="24">
+        <v>155</v>
+      </c>
+      <c r="H3" s="24">
+        <v>155</v>
+      </c>
+      <c r="I3" s="24">
+        <v>155</v>
+      </c>
+      <c r="J3" s="24">
+        <v>155</v>
+      </c>
+      <c r="K3" s="24">
+        <v>155</v>
+      </c>
+      <c r="L3" s="24">
+        <v>155</v>
+      </c>
+      <c r="M3" s="34">
+        <v>155</v>
+      </c>
+      <c r="N3" s="25"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="50"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9">
+        <v>726226937</v>
+      </c>
+      <c r="D4" s="23">
+        <v>155</v>
+      </c>
+      <c r="E4" s="24">
+        <v>155</v>
+      </c>
+      <c r="F4" s="24">
+        <v>155</v>
+      </c>
+      <c r="G4" s="24">
+        <v>155</v>
+      </c>
+      <c r="H4" s="24">
+        <v>155</v>
+      </c>
+      <c r="I4" s="24">
+        <v>155</v>
+      </c>
+      <c r="J4" s="24">
+        <v>155</v>
+      </c>
+      <c r="K4" s="24">
+        <v>155</v>
+      </c>
+      <c r="L4" s="24">
+        <v>155</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="37">
+        <v>155</v>
+      </c>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="50"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9">
+        <v>729142747</v>
+      </c>
+      <c r="D5" s="23">
+        <v>155</v>
+      </c>
+      <c r="E5" s="24">
+        <v>155</v>
+      </c>
+      <c r="F5" s="24">
+        <v>155</v>
+      </c>
+      <c r="G5" s="24">
+        <v>155</v>
+      </c>
+      <c r="H5" s="24">
+        <v>155</v>
+      </c>
+      <c r="I5" s="24">
+        <v>155</v>
+      </c>
+      <c r="J5" s="24">
+        <v>155</v>
+      </c>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="37">
+        <v>155</v>
+      </c>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R5" s="50"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9">
+        <v>33668109988</v>
+      </c>
+      <c r="D6" s="23">
+        <v>155</v>
+      </c>
+      <c r="E6" s="24">
+        <v>155</v>
+      </c>
+      <c r="F6" s="24">
+        <v>155</v>
+      </c>
+      <c r="G6" s="24">
+        <v>155</v>
+      </c>
+      <c r="H6" s="24">
+        <v>155</v>
+      </c>
+      <c r="I6" s="24">
+        <v>155</v>
+      </c>
+      <c r="J6" s="24">
+        <v>155</v>
+      </c>
+      <c r="K6" s="24">
+        <v>155</v>
+      </c>
+      <c r="L6" s="24">
+        <v>155</v>
+      </c>
+      <c r="M6" s="34">
+        <v>155</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O6" s="35"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R6" s="50"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9">
+        <v>755662099</v>
+      </c>
+      <c r="D7" s="23">
+        <v>155</v>
+      </c>
+      <c r="E7" s="24">
+        <v>155</v>
+      </c>
+      <c r="F7" s="24">
+        <v>155</v>
+      </c>
+      <c r="G7" s="24">
+        <v>155</v>
+      </c>
+      <c r="H7" s="24">
+        <v>155</v>
+      </c>
+      <c r="I7" s="24">
+        <v>155</v>
+      </c>
+      <c r="J7" s="24">
+        <v>155</v>
+      </c>
+      <c r="K7" s="24">
+        <v>155</v>
+      </c>
+      <c r="L7" s="24">
+        <v>155</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="37">
+        <v>155</v>
+      </c>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R7" s="50"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="17">
+        <v>758573056</v>
+      </c>
+      <c r="D8" s="23">
+        <v>155</v>
+      </c>
+      <c r="E8" s="24">
+        <v>155</v>
+      </c>
+      <c r="F8" s="24">
+        <v>155</v>
+      </c>
+      <c r="G8" s="24">
+        <v>155</v>
+      </c>
+      <c r="H8" s="24">
+        <v>155</v>
+      </c>
+      <c r="I8" s="24">
+        <v>155</v>
+      </c>
+      <c r="J8" s="24">
+        <v>155</v>
+      </c>
+      <c r="K8" s="24">
+        <v>155</v>
+      </c>
+      <c r="L8" s="24">
+        <v>155</v>
+      </c>
+      <c r="M8" s="36"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="37">
+        <v>155</v>
+      </c>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="50"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9">
+        <v>751982719</v>
+      </c>
+      <c r="D9" s="23">
+        <v>155</v>
+      </c>
+      <c r="E9" s="24">
+        <v>155</v>
+      </c>
+      <c r="F9" s="24">
+        <v>155</v>
+      </c>
+      <c r="G9" s="24">
+        <v>155</v>
+      </c>
+      <c r="H9" s="24">
+        <v>155</v>
+      </c>
+      <c r="I9" s="24">
+        <v>155</v>
+      </c>
+      <c r="J9" s="24">
+        <v>155</v>
+      </c>
+      <c r="K9" s="24">
+        <v>155</v>
+      </c>
+      <c r="L9" s="24">
+        <v>155</v>
+      </c>
+      <c r="M9" s="34">
+        <v>155</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O9" s="35"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="50"/>
+    </row>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="9">
+        <v>752015542</v>
+      </c>
+      <c r="D10" s="23">
+        <v>155</v>
+      </c>
+      <c r="E10" s="24">
+        <v>155</v>
+      </c>
+      <c r="F10" s="24">
+        <v>155</v>
+      </c>
+      <c r="G10" s="24">
+        <v>155</v>
+      </c>
+      <c r="H10" s="24">
+        <v>155</v>
+      </c>
+      <c r="I10" s="24">
+        <v>155</v>
+      </c>
+      <c r="J10" s="24">
+        <v>155</v>
+      </c>
+      <c r="K10" s="24">
+        <v>155</v>
+      </c>
+      <c r="L10" s="25"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="37">
+        <v>155</v>
+      </c>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="50"/>
+    </row>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="9">
+        <v>752094420</v>
+      </c>
+      <c r="D11" s="23">
+        <v>155</v>
+      </c>
+      <c r="E11" s="24">
+        <v>155</v>
+      </c>
+      <c r="F11" s="24">
+        <v>155</v>
+      </c>
+      <c r="G11" s="24">
+        <v>155</v>
+      </c>
+      <c r="H11" s="24">
+        <v>155</v>
+      </c>
+      <c r="I11" s="24">
+        <v>155</v>
+      </c>
+      <c r="J11" s="24">
+        <v>155</v>
+      </c>
+      <c r="K11" s="24">
+        <v>155</v>
+      </c>
+      <c r="L11" s="24">
+        <v>155</v>
+      </c>
+      <c r="M11" s="36"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="37">
+        <v>155</v>
+      </c>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R11" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9">
+        <v>12032470380</v>
+      </c>
+      <c r="D12" s="23">
+        <v>155</v>
+      </c>
+      <c r="E12" s="24">
+        <v>155</v>
+      </c>
+      <c r="F12" s="24">
+        <v>155</v>
+      </c>
+      <c r="G12" s="24">
+        <v>155</v>
+      </c>
+      <c r="H12" s="24">
+        <v>155</v>
+      </c>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="37">
+        <v>155</v>
+      </c>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="9">
+        <v>749221731</v>
+      </c>
+      <c r="D13" s="23">
+        <v>155</v>
+      </c>
+      <c r="E13" s="24">
+        <v>155</v>
+      </c>
+      <c r="F13" s="24">
+        <v>155</v>
+      </c>
+      <c r="G13" s="24">
+        <v>155</v>
+      </c>
+      <c r="H13" s="24">
+        <v>155</v>
+      </c>
+      <c r="I13" s="24">
+        <v>155</v>
+      </c>
+      <c r="J13" s="24">
+        <v>155</v>
+      </c>
+      <c r="K13" s="24">
+        <v>155</v>
+      </c>
+      <c r="L13" s="24">
+        <v>155</v>
+      </c>
+      <c r="M13" s="36"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="37">
+        <v>155</v>
+      </c>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="50"/>
+    </row>
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="9">
+        <v>767086957</v>
+      </c>
+      <c r="D14" s="23">
+        <v>155</v>
+      </c>
+      <c r="E14" s="24">
+        <v>155</v>
+      </c>
+      <c r="F14" s="24">
+        <v>155</v>
+      </c>
+      <c r="G14" s="24">
+        <v>155</v>
+      </c>
+      <c r="H14" s="24">
+        <v>155</v>
+      </c>
+      <c r="I14" s="24">
+        <v>155</v>
+      </c>
+      <c r="J14" s="24">
+        <v>155</v>
+      </c>
+      <c r="K14" s="24">
+        <v>155</v>
+      </c>
+      <c r="L14" s="24">
+        <v>155</v>
+      </c>
+      <c r="M14" s="36"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="37">
+        <v>155</v>
+      </c>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="50"/>
+    </row>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="9">
+        <v>726333128</v>
+      </c>
+      <c r="D15" s="23">
+        <v>155</v>
+      </c>
+      <c r="E15" s="24">
+        <v>155</v>
+      </c>
+      <c r="F15" s="24">
+        <v>155</v>
+      </c>
+      <c r="G15" s="24">
+        <v>155</v>
+      </c>
+      <c r="H15" s="24">
+        <v>155</v>
+      </c>
+      <c r="I15" s="24">
+        <v>155</v>
+      </c>
+      <c r="J15" s="24">
+        <v>155</v>
+      </c>
+      <c r="K15" s="24">
+        <v>155</v>
+      </c>
+      <c r="L15" s="24">
+        <v>155</v>
+      </c>
+      <c r="M15" s="36"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="37">
+        <v>155</v>
+      </c>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="50"/>
+    </row>
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="9">
+        <v>743554064</v>
+      </c>
+      <c r="D16" s="23">
+        <v>155</v>
+      </c>
+      <c r="E16" s="24">
+        <v>155</v>
+      </c>
+      <c r="F16" s="24">
+        <v>155</v>
+      </c>
+      <c r="G16" s="24">
+        <v>155</v>
+      </c>
+      <c r="H16" s="24">
+        <v>155</v>
+      </c>
+      <c r="I16" s="24">
+        <v>155</v>
+      </c>
+      <c r="J16" s="24">
+        <v>155</v>
+      </c>
+      <c r="K16" s="24">
+        <v>155</v>
+      </c>
+      <c r="L16" s="24">
+        <v>155</v>
+      </c>
+      <c r="M16" s="34">
+        <v>155</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O16" s="35"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R16" s="50"/>
+    </row>
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="9">
+        <v>748702514</v>
+      </c>
+      <c r="D17" s="23">
+        <v>155</v>
+      </c>
+      <c r="E17" s="24">
+        <v>155</v>
+      </c>
+      <c r="F17" s="24">
+        <v>155</v>
+      </c>
+      <c r="G17" s="24">
+        <v>155</v>
+      </c>
+      <c r="H17" s="24">
+        <v>155</v>
+      </c>
+      <c r="I17" s="24">
+        <v>155</v>
+      </c>
+      <c r="J17" s="24">
+        <v>155</v>
+      </c>
+      <c r="K17" s="24">
+        <v>155</v>
+      </c>
+      <c r="L17" s="24">
+        <v>155</v>
+      </c>
+      <c r="M17" s="36"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="37">
+        <v>155</v>
+      </c>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="49"/>
+      <c r="R17" s="50"/>
+    </row>
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="9">
+        <v>743981231</v>
+      </c>
+      <c r="D18" s="23">
+        <v>155</v>
+      </c>
+      <c r="E18" s="24">
+        <v>155</v>
+      </c>
+      <c r="F18" s="24">
+        <v>155</v>
+      </c>
+      <c r="G18" s="24">
+        <v>155</v>
+      </c>
+      <c r="H18" s="24">
+        <v>155</v>
+      </c>
+      <c r="I18" s="24">
+        <v>155</v>
+      </c>
+      <c r="J18" s="24">
+        <v>155</v>
+      </c>
+      <c r="K18" s="24">
+        <v>155</v>
+      </c>
+      <c r="L18" s="24">
+        <v>155</v>
+      </c>
+      <c r="M18" s="36"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="37">
+        <v>155</v>
+      </c>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="49"/>
+      <c r="R18" s="50"/>
+    </row>
+    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9">
+        <v>735981273</v>
+      </c>
+      <c r="D19" s="23">
+        <v>135</v>
+      </c>
+      <c r="E19" s="24">
+        <v>135</v>
+      </c>
+      <c r="F19" s="24">
+        <v>135</v>
+      </c>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="24">
+        <v>135</v>
+      </c>
+      <c r="K19" s="24">
+        <v>135</v>
+      </c>
+      <c r="L19" s="24">
+        <v>135</v>
+      </c>
+      <c r="M19" s="36"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="37">
+        <v>135</v>
+      </c>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="49"/>
+      <c r="R19" s="50"/>
+    </row>
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="9">
+        <v>729677945</v>
+      </c>
+      <c r="D20" s="23">
+        <v>155</v>
+      </c>
+      <c r="E20" s="24">
+        <v>155</v>
+      </c>
+      <c r="F20" s="24">
+        <v>155</v>
+      </c>
+      <c r="G20" s="24">
+        <v>155</v>
+      </c>
+      <c r="H20" s="24">
+        <v>155</v>
+      </c>
+      <c r="I20" s="24">
+        <v>155</v>
+      </c>
+      <c r="J20" s="24">
+        <v>155</v>
+      </c>
+      <c r="K20" s="24">
+        <v>155</v>
+      </c>
+      <c r="L20" s="24">
+        <v>155</v>
+      </c>
+      <c r="M20" s="34">
+        <v>155</v>
+      </c>
+      <c r="N20" s="24">
+        <v>155</v>
+      </c>
+      <c r="O20" s="35"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="49"/>
+      <c r="R20" s="50"/>
+    </row>
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="9">
+        <v>758527832</v>
+      </c>
+      <c r="D21" s="23">
+        <v>155</v>
+      </c>
+      <c r="E21" s="24">
+        <v>155</v>
+      </c>
+      <c r="F21" s="24">
+        <v>155</v>
+      </c>
+      <c r="G21" s="24">
+        <v>155</v>
+      </c>
+      <c r="H21" s="24">
+        <v>155</v>
+      </c>
+      <c r="I21" s="24">
+        <v>155</v>
+      </c>
+      <c r="J21" s="24">
+        <v>155</v>
+      </c>
+      <c r="K21" s="24">
+        <v>155</v>
+      </c>
+      <c r="L21" s="24">
+        <v>155</v>
+      </c>
+      <c r="M21" s="36"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="37">
+        <v>155</v>
+      </c>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="49"/>
+      <c r="R21" s="50"/>
+    </row>
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="19">
+        <v>741573383</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" s="35"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="49"/>
+      <c r="R22" s="50"/>
+    </row>
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="9">
+        <v>740136283</v>
+      </c>
+      <c r="D23" s="23">
+        <v>155</v>
+      </c>
+      <c r="E23" s="24">
+        <v>155</v>
+      </c>
+      <c r="F23" s="24">
+        <v>155</v>
+      </c>
+      <c r="G23" s="24">
+        <v>155</v>
+      </c>
+      <c r="H23" s="24">
+        <v>155</v>
+      </c>
+      <c r="I23" s="24">
+        <v>155</v>
+      </c>
+      <c r="J23" s="24">
+        <v>155</v>
+      </c>
+      <c r="K23" s="24">
+        <v>155</v>
+      </c>
+      <c r="L23" s="24">
+        <v>155</v>
+      </c>
+      <c r="M23" s="34">
+        <v>155</v>
+      </c>
+      <c r="N23" s="25"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R23" s="50"/>
+    </row>
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="9">
+        <v>752240280</v>
+      </c>
+      <c r="D24" s="23">
+        <v>155</v>
+      </c>
+      <c r="E24" s="24">
+        <v>155</v>
+      </c>
+      <c r="F24" s="24">
+        <v>155</v>
+      </c>
+      <c r="G24" s="24">
+        <v>155</v>
+      </c>
+      <c r="H24" s="24">
+        <v>155</v>
+      </c>
+      <c r="I24" s="24">
+        <v>155</v>
+      </c>
+      <c r="J24" s="24">
+        <v>155</v>
+      </c>
+      <c r="K24" s="24">
+        <v>155</v>
+      </c>
+      <c r="L24" s="24">
+        <v>155</v>
+      </c>
+      <c r="M24" s="34">
+        <v>155</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O24" s="35"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="49"/>
+      <c r="R24" s="50"/>
+    </row>
+    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="9">
+        <v>745081557</v>
+      </c>
+      <c r="D25" s="23">
+        <v>155</v>
+      </c>
+      <c r="E25" s="24">
+        <v>155</v>
+      </c>
+      <c r="F25" s="24">
+        <v>155</v>
+      </c>
+      <c r="G25" s="24">
+        <v>155</v>
+      </c>
+      <c r="H25" s="24">
+        <v>155</v>
+      </c>
+      <c r="I25" s="24">
+        <v>155</v>
+      </c>
+      <c r="J25" s="24">
+        <v>155</v>
+      </c>
+      <c r="K25" s="24">
+        <v>155</v>
+      </c>
+      <c r="L25" s="24">
+        <v>155</v>
+      </c>
+      <c r="M25" s="36"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="37">
+        <v>155</v>
+      </c>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="50"/>
+    </row>
+    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="9">
+        <v>744761408</v>
+      </c>
+      <c r="D26" s="23">
+        <v>155</v>
+      </c>
+      <c r="E26" s="24">
+        <v>155</v>
+      </c>
+      <c r="F26" s="30">
+        <v>155</v>
+      </c>
+      <c r="G26" s="30">
+        <v>155</v>
+      </c>
+      <c r="H26" s="30">
+        <v>155</v>
+      </c>
+      <c r="I26" s="30">
+        <v>155</v>
+      </c>
+      <c r="J26" s="30">
+        <v>155</v>
+      </c>
+      <c r="K26" s="30">
+        <v>155</v>
+      </c>
+      <c r="L26" s="30">
+        <v>155</v>
+      </c>
+      <c r="M26" s="36"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="37">
+        <v>155</v>
+      </c>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R26" s="50"/>
+    </row>
+    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="9">
+        <v>756318760</v>
+      </c>
+      <c r="D27" s="23">
+        <v>155</v>
+      </c>
+      <c r="E27" s="24">
+        <v>155</v>
+      </c>
+      <c r="F27" s="24">
+        <v>155</v>
+      </c>
+      <c r="G27" s="24">
+        <v>155</v>
+      </c>
+      <c r="H27" s="24">
+        <v>155</v>
+      </c>
+      <c r="I27" s="24">
+        <v>155</v>
+      </c>
+      <c r="J27" s="24">
+        <v>155</v>
+      </c>
+      <c r="K27" s="24">
+        <v>155</v>
+      </c>
+      <c r="L27" s="24">
+        <v>155</v>
+      </c>
+      <c r="M27" s="36"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="37">
+        <v>155</v>
+      </c>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="49"/>
+      <c r="R27" s="50"/>
+    </row>
+    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="12">
+        <v>764888445</v>
+      </c>
+      <c r="D28" s="13">
+        <v>155</v>
+      </c>
+      <c r="E28" s="14">
+        <v>155</v>
+      </c>
+      <c r="F28" s="14">
+        <v>155</v>
+      </c>
+      <c r="G28" s="14">
+        <v>155</v>
+      </c>
+      <c r="H28" s="14">
+        <v>155</v>
+      </c>
+      <c r="I28" s="14">
+        <v>155</v>
+      </c>
+      <c r="J28" s="14">
+        <v>155</v>
+      </c>
+      <c r="K28" s="14">
+        <v>155</v>
+      </c>
+      <c r="L28" s="14">
+        <v>155</v>
+      </c>
+      <c r="M28" s="52"/>
+      <c r="N28" s="15"/>
+      <c r="O28" s="37">
+        <v>155</v>
+      </c>
+      <c r="P28" s="48"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="48"/>
+    </row>
+    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="9">
+        <v>755931135</v>
+      </c>
+      <c r="D29" s="23">
+        <v>155</v>
+      </c>
+      <c r="E29" s="24">
+        <v>155</v>
+      </c>
+      <c r="F29" s="24">
+        <v>155</v>
+      </c>
+      <c r="G29" s="24">
+        <v>155</v>
+      </c>
+      <c r="H29" s="24">
+        <v>155</v>
+      </c>
+      <c r="I29" s="24">
+        <v>155</v>
+      </c>
+      <c r="J29" s="24">
+        <v>155</v>
+      </c>
+      <c r="K29" s="24">
+        <v>155</v>
+      </c>
+      <c r="L29" s="24">
+        <v>155</v>
+      </c>
+      <c r="M29" s="36"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="37">
+        <v>155</v>
+      </c>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="49"/>
+      <c r="R29" s="50"/>
+    </row>
+    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="9">
+        <v>33782781442</v>
+      </c>
+      <c r="D30" s="23">
+        <v>155</v>
+      </c>
+      <c r="E30" s="24">
+        <v>155</v>
+      </c>
+      <c r="F30" s="24">
+        <v>155</v>
+      </c>
+      <c r="G30" s="24">
+        <v>155</v>
+      </c>
+      <c r="H30" s="24">
+        <v>155</v>
+      </c>
+      <c r="I30" s="24">
+        <v>155</v>
+      </c>
+      <c r="J30" s="24">
+        <v>155</v>
+      </c>
+      <c r="K30" s="24">
+        <v>155</v>
+      </c>
+      <c r="L30" s="24">
+        <v>155</v>
+      </c>
+      <c r="M30" s="36"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="37">
+        <v>155</v>
+      </c>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="50"/>
+    </row>
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="9">
+        <v>730913443</v>
+      </c>
+      <c r="D31" s="23">
+        <v>155</v>
+      </c>
+      <c r="E31" s="24">
+        <v>155</v>
+      </c>
+      <c r="F31" s="24">
+        <v>155</v>
+      </c>
+      <c r="G31" s="24">
+        <v>155</v>
+      </c>
+      <c r="H31" s="24">
+        <v>155</v>
+      </c>
+      <c r="I31" s="24">
+        <v>155</v>
+      </c>
+      <c r="J31" s="24">
+        <v>155</v>
+      </c>
+      <c r="K31" s="24">
+        <v>155</v>
+      </c>
+      <c r="L31" s="24">
+        <v>155</v>
+      </c>
+      <c r="M31" s="36"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="37">
+        <v>155</v>
+      </c>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="50"/>
+    </row>
+    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="9">
+        <v>751709016</v>
+      </c>
+      <c r="D32" s="23">
+        <v>155</v>
+      </c>
+      <c r="E32" s="24">
+        <v>155</v>
+      </c>
+      <c r="F32" s="24">
+        <v>155</v>
+      </c>
+      <c r="G32" s="24">
+        <v>155</v>
+      </c>
+      <c r="H32" s="24">
+        <v>155</v>
+      </c>
+      <c r="I32" s="24">
+        <v>155</v>
+      </c>
+      <c r="J32" s="24">
+        <v>155</v>
+      </c>
+      <c r="K32" s="24">
+        <v>155</v>
+      </c>
+      <c r="L32" s="24">
+        <v>155</v>
+      </c>
+      <c r="M32" s="36"/>
+      <c r="N32" s="25"/>
+      <c r="O32" s="37">
+        <v>155</v>
+      </c>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="50"/>
+    </row>
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="9">
+        <v>773787056</v>
+      </c>
+      <c r="D33" s="23">
+        <v>155</v>
+      </c>
+      <c r="E33" s="24">
+        <v>155</v>
+      </c>
+      <c r="F33" s="24">
+        <v>155</v>
+      </c>
+      <c r="G33" s="24">
+        <v>155</v>
+      </c>
+      <c r="H33" s="24">
+        <v>155</v>
+      </c>
+      <c r="I33" s="24">
+        <v>155</v>
+      </c>
+      <c r="J33" s="24">
+        <v>155</v>
+      </c>
+      <c r="K33" s="24">
+        <v>155</v>
+      </c>
+      <c r="L33" s="24">
+        <v>155</v>
+      </c>
+      <c r="M33" s="34">
+        <v>155</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O33" s="35"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R33" s="50"/>
+    </row>
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="9">
+        <v>749020388</v>
+      </c>
+      <c r="D34" s="23">
+        <v>155</v>
+      </c>
+      <c r="E34" s="24">
+        <v>155</v>
+      </c>
+      <c r="F34" s="24">
+        <v>155</v>
+      </c>
+      <c r="G34" s="24">
+        <v>155</v>
+      </c>
+      <c r="H34" s="24">
+        <v>155</v>
+      </c>
+      <c r="I34" s="24">
+        <v>155</v>
+      </c>
+      <c r="J34" s="24">
+        <v>155</v>
+      </c>
+      <c r="K34" s="24">
+        <v>155</v>
+      </c>
+      <c r="L34" s="24">
+        <v>155</v>
+      </c>
+      <c r="M34" s="36"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="37">
+        <v>155</v>
+      </c>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="50"/>
+    </row>
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="9">
+        <v>743229325</v>
+      </c>
+      <c r="D35" s="23">
+        <v>155</v>
+      </c>
+      <c r="E35" s="24">
+        <v>155</v>
+      </c>
+      <c r="F35" s="24">
+        <v>155</v>
+      </c>
+      <c r="G35" s="24">
+        <v>155</v>
+      </c>
+      <c r="H35" s="24">
+        <v>155</v>
+      </c>
+      <c r="I35" s="24">
+        <v>155</v>
+      </c>
+      <c r="J35" s="24">
+        <v>155</v>
+      </c>
+      <c r="K35" s="24">
+        <v>155</v>
+      </c>
+      <c r="L35" s="24">
+        <v>155</v>
+      </c>
+      <c r="M35" s="34">
+        <v>155</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O35" s="35"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="50"/>
+    </row>
+    <row r="36" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B36" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="8">
-        <v>730989179</v>
-      </c>
-      <c r="D2" s="9">
-        <v>155</v>
-      </c>
-      <c r="E2" s="10">
-        <v>155</v>
-      </c>
-      <c r="F2" s="10">
-        <v>155</v>
-      </c>
-      <c r="G2" s="10">
-        <v>155</v>
-      </c>
-      <c r="H2" s="10">
-        <v>155</v>
-      </c>
-      <c r="I2" s="10">
-        <v>155</v>
-      </c>
-      <c r="J2" s="10">
-        <v>155</v>
-      </c>
-      <c r="K2" s="10">
-        <v>155</v>
-      </c>
-      <c r="L2" s="10">
-        <v>155</v>
-      </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="13">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="8">
-        <v>730989179</v>
-      </c>
-      <c r="D3">
-        <v>155</v>
-      </c>
-      <c r="E3">
-        <v>155</v>
-      </c>
-      <c r="F3">
-        <v>155</v>
-      </c>
-      <c r="G3">
-        <v>155</v>
-      </c>
-      <c r="O3">
+      <c r="C36" s="9">
+        <v>724560970</v>
+      </c>
+      <c r="D36" s="23">
+        <v>155</v>
+      </c>
+      <c r="E36" s="24">
+        <v>155</v>
+      </c>
+      <c r="F36" s="24">
+        <v>155</v>
+      </c>
+      <c r="G36" s="24">
+        <v>155</v>
+      </c>
+      <c r="H36" s="24">
+        <v>155</v>
+      </c>
+      <c r="I36" s="24">
+        <v>155</v>
+      </c>
+      <c r="J36" s="24">
+        <v>155</v>
+      </c>
+      <c r="K36" s="24">
+        <v>155</v>
+      </c>
+      <c r="L36" s="24">
+        <v>155</v>
+      </c>
+      <c r="M36" s="36"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="37">
+        <v>155</v>
+      </c>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="50"/>
+    </row>
+    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="9">
+        <v>751343396</v>
+      </c>
+      <c r="D37" s="23">
+        <v>155</v>
+      </c>
+      <c r="E37" s="24">
+        <v>155</v>
+      </c>
+      <c r="F37" s="24">
+        <v>155</v>
+      </c>
+      <c r="G37" s="24">
+        <v>155</v>
+      </c>
+      <c r="H37" s="24">
+        <v>155</v>
+      </c>
+      <c r="I37" s="24">
+        <v>155</v>
+      </c>
+      <c r="J37" s="24">
+        <v>155</v>
+      </c>
+      <c r="K37" s="24">
+        <v>155</v>
+      </c>
+      <c r="L37" s="24">
+        <v>155</v>
+      </c>
+      <c r="M37" s="36"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="37">
+        <v>155</v>
+      </c>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="50"/>
+    </row>
+    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9">
+        <v>747601279</v>
+      </c>
+      <c r="D38" s="23">
+        <v>155</v>
+      </c>
+      <c r="E38" s="24">
+        <v>155</v>
+      </c>
+      <c r="F38" s="24">
+        <v>155</v>
+      </c>
+      <c r="G38" s="24">
+        <v>155</v>
+      </c>
+      <c r="H38" s="24">
+        <v>155</v>
+      </c>
+      <c r="I38" s="24">
+        <v>155</v>
+      </c>
+      <c r="J38" s="24">
+        <v>155</v>
+      </c>
+      <c r="K38" s="24">
+        <v>155</v>
+      </c>
+      <c r="L38" s="24">
+        <v>155</v>
+      </c>
+      <c r="M38" s="36"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="37">
+        <v>155</v>
+      </c>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="50"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="9">
+        <v>743241140</v>
+      </c>
+      <c r="D39" s="23">
+        <v>155</v>
+      </c>
+      <c r="E39" s="24">
+        <v>155</v>
+      </c>
+      <c r="F39" s="24">
+        <v>155</v>
+      </c>
+      <c r="G39" s="24">
+        <v>155</v>
+      </c>
+      <c r="H39" s="24">
+        <v>155</v>
+      </c>
+      <c r="I39" s="24">
+        <v>155</v>
+      </c>
+      <c r="J39" s="24">
+        <v>155</v>
+      </c>
+      <c r="K39" s="24">
+        <v>155</v>
+      </c>
+      <c r="L39" s="24">
+        <v>155</v>
+      </c>
+      <c r="M39" s="36"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="37">
+        <v>155</v>
+      </c>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="50"/>
+    </row>
+    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="9">
+        <v>732009826</v>
+      </c>
+      <c r="D40" s="23">
+        <v>155</v>
+      </c>
+      <c r="E40" s="24">
+        <v>155</v>
+      </c>
+      <c r="F40" s="24">
+        <v>155</v>
+      </c>
+      <c r="G40" s="24">
+        <v>155</v>
+      </c>
+      <c r="H40" s="24">
+        <v>155</v>
+      </c>
+      <c r="I40" s="24">
+        <v>155</v>
+      </c>
+      <c r="J40" s="24">
+        <v>155</v>
+      </c>
+      <c r="K40" s="24">
+        <v>155</v>
+      </c>
+      <c r="L40" s="24">
+        <v>155</v>
+      </c>
+      <c r="M40" s="36"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="37">
+        <v>155</v>
+      </c>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="50"/>
+    </row>
+    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="9">
+        <v>730504732</v>
+      </c>
+      <c r="D41" s="23">
+        <v>155</v>
+      </c>
+      <c r="E41" s="24">
+        <v>155</v>
+      </c>
+      <c r="F41" s="24">
+        <v>155</v>
+      </c>
+      <c r="G41" s="24">
+        <v>155</v>
+      </c>
+      <c r="H41" s="24">
+        <v>155</v>
+      </c>
+      <c r="I41" s="24">
+        <v>155</v>
+      </c>
+      <c r="J41" s="24">
+        <v>155</v>
+      </c>
+      <c r="K41" s="24">
+        <v>155</v>
+      </c>
+      <c r="L41" s="24">
+        <v>155</v>
+      </c>
+      <c r="M41" s="34">
+        <v>155</v>
+      </c>
+      <c r="N41" s="24">
+        <v>155</v>
+      </c>
+      <c r="O41" s="35"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="50"/>
+    </row>
+    <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="9">
+        <v>771756831</v>
+      </c>
+      <c r="D42" s="23">
+        <v>155</v>
+      </c>
+      <c r="E42" s="24">
+        <v>155</v>
+      </c>
+      <c r="F42" s="24">
+        <v>155</v>
+      </c>
+      <c r="G42" s="24">
+        <v>155</v>
+      </c>
+      <c r="H42" s="24">
+        <v>155</v>
+      </c>
+      <c r="I42" s="24">
+        <v>155</v>
+      </c>
+      <c r="J42" s="24">
+        <v>155</v>
+      </c>
+      <c r="K42" s="24">
+        <v>155</v>
+      </c>
+      <c r="L42" s="24">
+        <v>155</v>
+      </c>
+      <c r="M42" s="36"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="37">
+        <v>155</v>
+      </c>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R42" s="50"/>
+    </row>
+    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="9">
+        <v>748883235</v>
+      </c>
+      <c r="D43" s="23">
+        <v>155</v>
+      </c>
+      <c r="E43" s="24">
+        <v>155</v>
+      </c>
+      <c r="F43" s="24">
+        <v>155</v>
+      </c>
+      <c r="G43" s="24">
+        <v>155</v>
+      </c>
+      <c r="H43" s="24">
+        <v>155</v>
+      </c>
+      <c r="I43" s="24">
+        <v>155</v>
+      </c>
+      <c r="J43" s="24">
+        <v>155</v>
+      </c>
+      <c r="K43" s="24">
+        <v>155</v>
+      </c>
+      <c r="L43" s="24">
+        <v>155</v>
+      </c>
+      <c r="M43" s="36"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="37">
+        <v>155</v>
+      </c>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="50"/>
+    </row>
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="9">
+        <v>771143821</v>
+      </c>
+      <c r="D44" s="23">
+        <v>80</v>
+      </c>
+      <c r="E44" s="24">
+        <v>80</v>
+      </c>
+      <c r="F44" s="24">
+        <v>80</v>
+      </c>
+      <c r="G44" s="24">
+        <v>80</v>
+      </c>
+      <c r="H44" s="24">
+        <v>80</v>
+      </c>
+      <c r="I44" s="24">
+        <v>80</v>
+      </c>
+      <c r="J44" s="25"/>
+      <c r="K44" s="25"/>
+      <c r="L44" s="25"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="25"/>
+      <c r="O44" s="37">
+        <v>80</v>
+      </c>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="50"/>
+    </row>
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="9">
+        <v>742201134</v>
+      </c>
+      <c r="D45" s="23">
+        <v>155</v>
+      </c>
+      <c r="E45" s="24">
+        <v>155</v>
+      </c>
+      <c r="F45" s="24">
+        <v>155</v>
+      </c>
+      <c r="G45" s="24">
+        <v>155</v>
+      </c>
+      <c r="H45" s="24">
+        <v>155</v>
+      </c>
+      <c r="I45" s="24">
+        <v>155</v>
+      </c>
+      <c r="J45" s="24">
+        <v>155</v>
+      </c>
+      <c r="K45" s="24">
+        <v>155</v>
+      </c>
+      <c r="L45" s="24">
+        <v>155</v>
+      </c>
+      <c r="M45" s="34">
+        <v>155</v>
+      </c>
+      <c r="N45" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O45" s="35"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="50"/>
+    </row>
+    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="9">
+        <v>731453375</v>
+      </c>
+      <c r="D46" s="23">
+        <v>155</v>
+      </c>
+      <c r="E46" s="24">
+        <v>155</v>
+      </c>
+      <c r="F46" s="24">
+        <v>155</v>
+      </c>
+      <c r="G46" s="24">
+        <v>155</v>
+      </c>
+      <c r="H46" s="24">
+        <v>155</v>
+      </c>
+      <c r="I46" s="24">
+        <v>155</v>
+      </c>
+      <c r="J46" s="24">
+        <v>155</v>
+      </c>
+      <c r="K46" s="24">
+        <v>155</v>
+      </c>
+      <c r="L46" s="24">
+        <v>155</v>
+      </c>
+      <c r="M46" s="36"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="37">
+        <v>155</v>
+      </c>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="50"/>
+    </row>
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="9">
+        <v>41793609481</v>
+      </c>
+      <c r="D47" s="23">
+        <v>155</v>
+      </c>
+      <c r="E47" s="24">
+        <v>155</v>
+      </c>
+      <c r="F47" s="24">
+        <v>155</v>
+      </c>
+      <c r="G47" s="24">
+        <v>155</v>
+      </c>
+      <c r="H47" s="24">
+        <v>155</v>
+      </c>
+      <c r="I47" s="24">
+        <v>155</v>
+      </c>
+      <c r="J47" s="24">
+        <v>155</v>
+      </c>
+      <c r="K47" s="24">
+        <v>155</v>
+      </c>
+      <c r="L47" s="24">
+        <v>155</v>
+      </c>
+      <c r="M47" s="36"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="37">
+        <v>155</v>
+      </c>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="49"/>
+      <c r="R47" s="50"/>
+    </row>
+    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="9">
+        <v>34666220586</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="37"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R48" s="50"/>
+    </row>
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="9">
+        <v>723385958</v>
+      </c>
+      <c r="D49" s="23">
+        <v>155</v>
+      </c>
+      <c r="E49" s="24">
+        <v>155</v>
+      </c>
+      <c r="F49" s="24">
+        <v>155</v>
+      </c>
+      <c r="G49" s="24">
+        <v>155</v>
+      </c>
+      <c r="H49" s="24">
+        <v>155</v>
+      </c>
+      <c r="I49" s="24">
+        <v>155</v>
+      </c>
+      <c r="J49" s="24">
+        <v>155</v>
+      </c>
+      <c r="K49" s="24">
+        <v>155</v>
+      </c>
+      <c r="L49" s="24">
+        <v>155</v>
+      </c>
+      <c r="M49" s="36"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="37">
+        <v>155</v>
+      </c>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="49"/>
+      <c r="R49" s="50"/>
+    </row>
+    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="9">
+        <v>744112116</v>
+      </c>
+      <c r="D50" s="23">
+        <v>155</v>
+      </c>
+      <c r="E50" s="24">
+        <v>155</v>
+      </c>
+      <c r="F50" s="24">
+        <v>155</v>
+      </c>
+      <c r="G50" s="24">
+        <v>155</v>
+      </c>
+      <c r="H50" s="24">
+        <v>155</v>
+      </c>
+      <c r="I50" s="24">
+        <v>155</v>
+      </c>
+      <c r="J50" s="24">
+        <v>155</v>
+      </c>
+      <c r="K50" s="24">
+        <v>155</v>
+      </c>
+      <c r="L50" s="24">
+        <v>155</v>
+      </c>
+      <c r="M50" s="34">
+        <v>155</v>
+      </c>
+      <c r="N50" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O50" s="35"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="49"/>
+      <c r="R50" s="50"/>
+    </row>
+    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="9">
+        <v>720049170</v>
+      </c>
+      <c r="D51" s="23">
+        <v>155</v>
+      </c>
+      <c r="E51" s="24">
+        <v>155</v>
+      </c>
+      <c r="F51" s="24">
+        <v>155</v>
+      </c>
+      <c r="G51" s="24">
+        <v>155</v>
+      </c>
+      <c r="H51" s="24">
+        <v>155</v>
+      </c>
+      <c r="I51" s="24">
+        <v>155</v>
+      </c>
+      <c r="J51" s="24">
+        <v>155</v>
+      </c>
+      <c r="K51" s="24">
+        <v>155</v>
+      </c>
+      <c r="L51" s="24">
+        <v>155</v>
+      </c>
+      <c r="M51" s="34">
+        <v>155</v>
+      </c>
+      <c r="N51" s="24">
+        <v>155</v>
+      </c>
+      <c r="O51" s="35"/>
+      <c r="P51" s="43"/>
+      <c r="Q51" s="49"/>
+      <c r="R51" s="50"/>
+    </row>
+    <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="9">
+        <v>410779995351</v>
+      </c>
+      <c r="D52" s="23">
+        <v>155</v>
+      </c>
+      <c r="E52" s="24">
+        <v>155</v>
+      </c>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="37">
+        <v>155</v>
+      </c>
+      <c r="P52" s="43"/>
+      <c r="Q52" s="49"/>
+      <c r="R52" s="50"/>
+    </row>
+    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="19">
+        <v>7796402501</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="J53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="L53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="M53" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="O53" s="35"/>
+      <c r="P53" s="43"/>
+      <c r="Q53" s="49"/>
+      <c r="R53" s="50"/>
+    </row>
+    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="9">
+        <v>757678280</v>
+      </c>
+      <c r="D54" s="23">
+        <v>155</v>
+      </c>
+      <c r="E54" s="24">
+        <v>155</v>
+      </c>
+      <c r="F54" s="24">
+        <v>155</v>
+      </c>
+      <c r="G54" s="24">
+        <v>155</v>
+      </c>
+      <c r="H54" s="24">
+        <v>155</v>
+      </c>
+      <c r="I54" s="24">
+        <v>155</v>
+      </c>
+      <c r="J54" s="24">
+        <v>155</v>
+      </c>
+      <c r="K54" s="24">
+        <v>155</v>
+      </c>
+      <c r="L54" s="24">
+        <v>155</v>
+      </c>
+      <c r="M54" s="34">
+        <v>155</v>
+      </c>
+      <c r="N54" s="25"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="43"/>
+      <c r="Q54" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R54" s="50"/>
+    </row>
+    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="9">
+        <v>744705023</v>
+      </c>
+      <c r="D55" s="23">
+        <v>155</v>
+      </c>
+      <c r="E55" s="24">
+        <v>155</v>
+      </c>
+      <c r="F55" s="24">
+        <v>155</v>
+      </c>
+      <c r="G55" s="24">
+        <v>155</v>
+      </c>
+      <c r="H55" s="24">
+        <v>155</v>
+      </c>
+      <c r="I55" s="24">
+        <v>155</v>
+      </c>
+      <c r="J55" s="24">
+        <v>155</v>
+      </c>
+      <c r="K55" s="24">
+        <v>155</v>
+      </c>
+      <c r="L55" s="24">
+        <v>155</v>
+      </c>
+      <c r="M55" s="36"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="37">
+        <v>155</v>
+      </c>
+      <c r="P55" s="43"/>
+      <c r="Q55" s="49"/>
+      <c r="R55" s="50"/>
+    </row>
+    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="20" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4"/>
-      <c r="D4">
-        <v>120</v>
-      </c>
-      <c r="F4">
-        <v>120</v>
-      </c>
-      <c r="H4">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="7">
-        <v>7345</v>
-      </c>
-      <c r="D5">
+      <c r="B56" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="9">
+        <v>724385533</v>
+      </c>
+      <c r="D56" s="23">
+        <v>155</v>
+      </c>
+      <c r="E56" s="24">
+        <v>155</v>
+      </c>
+      <c r="F56" s="24">
+        <v>155</v>
+      </c>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="36"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q56" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R56" s="50"/>
+    </row>
+    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="9">
+        <v>722283194</v>
+      </c>
+      <c r="D57" s="29"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="37"/>
+      <c r="P57" s="43"/>
+      <c r="Q57" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R57" s="50"/>
+    </row>
+    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="9">
+        <v>742083396</v>
+      </c>
+      <c r="D58" s="23">
+        <v>155</v>
+      </c>
+      <c r="E58" s="24">
+        <v>155</v>
+      </c>
+      <c r="F58" s="24">
+        <v>155</v>
+      </c>
+      <c r="G58" s="24">
+        <v>155</v>
+      </c>
+      <c r="H58" s="30">
+        <v>130</v>
+      </c>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="36"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="37">
+        <v>155</v>
+      </c>
+      <c r="P58" s="43"/>
+      <c r="Q58" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R58" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="9">
+        <v>751700208</v>
+      </c>
+      <c r="D59" s="23">
+        <v>155</v>
+      </c>
+      <c r="E59" s="24">
+        <v>155</v>
+      </c>
+      <c r="F59" s="24">
+        <v>155</v>
+      </c>
+      <c r="G59" s="24">
+        <v>155</v>
+      </c>
+      <c r="H59" s="24">
+        <v>155</v>
+      </c>
+      <c r="I59" s="24">
+        <v>155</v>
+      </c>
+      <c r="J59" s="24">
+        <v>155</v>
+      </c>
+      <c r="K59" s="24">
+        <v>155</v>
+      </c>
+      <c r="L59" s="24">
+        <v>155</v>
+      </c>
+      <c r="M59" s="36"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="37">
+        <v>155</v>
+      </c>
+      <c r="P59" s="43"/>
+      <c r="Q59" s="49"/>
+      <c r="R59" s="50"/>
+    </row>
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="9">
+        <v>740759994</v>
+      </c>
+      <c r="D60" s="23">
+        <v>155</v>
+      </c>
+      <c r="E60" s="24">
+        <v>155</v>
+      </c>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="36"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="37">
+        <v>155</v>
+      </c>
+      <c r="P60" s="43"/>
+      <c r="Q60" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R60" s="50"/>
+    </row>
+    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="10">
+        <v>723191854</v>
+      </c>
+      <c r="D61" s="29"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="39"/>
+      <c r="P61" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q61" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R61" s="50"/>
+    </row>
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="9">
+        <v>726489020</v>
+      </c>
+      <c r="D62" s="23">
+        <v>155</v>
+      </c>
+      <c r="E62" s="24">
+        <v>155</v>
+      </c>
+      <c r="F62" s="24">
+        <v>155</v>
+      </c>
+      <c r="G62" s="24">
+        <v>155</v>
+      </c>
+      <c r="H62" s="24">
+        <v>155</v>
+      </c>
+      <c r="I62" s="24">
+        <v>155</v>
+      </c>
+      <c r="J62" s="24">
+        <v>155</v>
+      </c>
+      <c r="K62" s="24">
+        <v>155</v>
+      </c>
+      <c r="L62" s="24">
+        <v>155</v>
+      </c>
+      <c r="M62" s="34">
+        <v>155</v>
+      </c>
+      <c r="N62" s="25"/>
+      <c r="O62" s="35"/>
+      <c r="P62" s="43"/>
+      <c r="Q62" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R62" s="50"/>
+    </row>
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="H5">
-        <v>135</v>
-      </c>
-      <c r="O5">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7">
-        <v>333</v>
-      </c>
-      <c r="D6">
-        <v>100</v>
-      </c>
-      <c r="O6">
-        <v>100</v>
-      </c>
+      <c r="C63" s="9">
+        <v>745525405</v>
+      </c>
+      <c r="D63" s="23">
+        <v>155</v>
+      </c>
+      <c r="E63" s="24">
+        <v>155</v>
+      </c>
+      <c r="F63" s="24">
+        <v>155</v>
+      </c>
+      <c r="G63" s="24">
+        <v>155</v>
+      </c>
+      <c r="H63" s="24">
+        <v>155</v>
+      </c>
+      <c r="I63" s="24">
+        <v>155</v>
+      </c>
+      <c r="J63" s="24">
+        <v>155</v>
+      </c>
+      <c r="K63" s="24">
+        <v>155</v>
+      </c>
+      <c r="L63" s="24">
+        <v>155</v>
+      </c>
+      <c r="M63" s="36"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="37">
+        <v>155</v>
+      </c>
+      <c r="P63" s="43"/>
+      <c r="Q63" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R63" s="50"/>
+    </row>
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="9">
+        <v>720878686</v>
+      </c>
+      <c r="D64" s="29"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="37"/>
+      <c r="P64" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q64" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R64" s="50"/>
+    </row>
+    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="9">
+        <v>740074538</v>
+      </c>
+      <c r="D65" s="23">
+        <v>155</v>
+      </c>
+      <c r="E65" s="24">
+        <v>155</v>
+      </c>
+      <c r="F65" s="24">
+        <v>155</v>
+      </c>
+      <c r="G65" s="24">
+        <v>155</v>
+      </c>
+      <c r="H65" s="24">
+        <v>155</v>
+      </c>
+      <c r="I65" s="24">
+        <v>155</v>
+      </c>
+      <c r="J65" s="24">
+        <v>155</v>
+      </c>
+      <c r="K65" s="24">
+        <v>155</v>
+      </c>
+      <c r="L65" s="24">
+        <v>155</v>
+      </c>
+      <c r="M65" s="34">
+        <v>155</v>
+      </c>
+      <c r="N65" s="25"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="43"/>
+      <c r="Q65" s="49"/>
+      <c r="R65" s="50"/>
+    </row>
+    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="9">
+        <v>31687728451</v>
+      </c>
+      <c r="D66" s="23">
+        <v>55</v>
+      </c>
+      <c r="E66" s="24">
+        <v>55</v>
+      </c>
+      <c r="F66" s="24">
+        <v>55</v>
+      </c>
+      <c r="G66" s="24">
+        <v>55</v>
+      </c>
+      <c r="H66" s="24">
+        <v>55</v>
+      </c>
+      <c r="I66" s="24">
+        <v>55</v>
+      </c>
+      <c r="J66" s="24">
+        <v>55</v>
+      </c>
+      <c r="K66" s="24">
+        <v>55</v>
+      </c>
+      <c r="L66" s="24">
+        <v>55</v>
+      </c>
+      <c r="M66" s="36"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="37">
+        <v>55</v>
+      </c>
+      <c r="P66" s="43"/>
+      <c r="Q66" s="49"/>
+      <c r="R66" s="50"/>
+    </row>
+    <row r="67" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="9">
+        <v>373069265735</v>
+      </c>
+      <c r="D67" s="23">
+        <v>55</v>
+      </c>
+      <c r="E67" s="24">
+        <v>55</v>
+      </c>
+      <c r="F67" s="24">
+        <v>55</v>
+      </c>
+      <c r="G67" s="24">
+        <v>55</v>
+      </c>
+      <c r="H67" s="24">
+        <v>55</v>
+      </c>
+      <c r="I67" s="24">
+        <v>55</v>
+      </c>
+      <c r="J67" s="24">
+        <v>55</v>
+      </c>
+      <c r="K67" s="24">
+        <v>55</v>
+      </c>
+      <c r="L67" s="24">
+        <v>55</v>
+      </c>
+      <c r="M67" s="36"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="37">
+        <v>55</v>
+      </c>
+      <c r="P67" s="43"/>
+      <c r="Q67" s="49"/>
+      <c r="R67" s="50"/>
+    </row>
+    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="9">
+        <v>740186024</v>
+      </c>
+      <c r="D68" s="23">
+        <v>155</v>
+      </c>
+      <c r="E68" s="24">
+        <v>155</v>
+      </c>
+      <c r="F68" s="24">
+        <v>155</v>
+      </c>
+      <c r="G68" s="24">
+        <v>155</v>
+      </c>
+      <c r="H68" s="24">
+        <v>155</v>
+      </c>
+      <c r="I68" s="24">
+        <v>155</v>
+      </c>
+      <c r="J68" s="24">
+        <v>155</v>
+      </c>
+      <c r="K68" s="24">
+        <v>155</v>
+      </c>
+      <c r="L68" s="24">
+        <v>155</v>
+      </c>
+      <c r="M68" s="34">
+        <v>155</v>
+      </c>
+      <c r="N68" s="24">
+        <v>155</v>
+      </c>
+      <c r="O68" s="35"/>
+      <c r="P68" s="43"/>
+      <c r="Q68" s="49"/>
+      <c r="R68" s="50"/>
+    </row>
+    <row r="69" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="9">
+        <v>37379706120</v>
+      </c>
+      <c r="D69" s="23">
+        <v>55</v>
+      </c>
+      <c r="E69" s="24">
+        <v>55</v>
+      </c>
+      <c r="F69" s="24">
+        <v>55</v>
+      </c>
+      <c r="G69" s="24">
+        <v>55</v>
+      </c>
+      <c r="H69" s="24">
+        <v>55</v>
+      </c>
+      <c r="I69" s="24">
+        <v>55</v>
+      </c>
+      <c r="J69" s="24">
+        <v>55</v>
+      </c>
+      <c r="K69" s="24">
+        <v>55</v>
+      </c>
+      <c r="L69" s="24">
+        <v>55</v>
+      </c>
+      <c r="M69" s="34">
+        <v>55</v>
+      </c>
+      <c r="N69" s="24">
+        <v>55</v>
+      </c>
+      <c r="O69" s="35"/>
+      <c r="P69" s="43"/>
+      <c r="Q69" s="49"/>
+      <c r="R69" s="50"/>
+    </row>
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="9">
+        <v>37361183234</v>
+      </c>
+      <c r="D70" s="23">
+        <v>55</v>
+      </c>
+      <c r="E70" s="24">
+        <v>55</v>
+      </c>
+      <c r="F70" s="24">
+        <v>55</v>
+      </c>
+      <c r="G70" s="24">
+        <v>55</v>
+      </c>
+      <c r="H70" s="24">
+        <v>55</v>
+      </c>
+      <c r="I70" s="24">
+        <v>55</v>
+      </c>
+      <c r="J70" s="24">
+        <v>55</v>
+      </c>
+      <c r="K70" s="24">
+        <v>55</v>
+      </c>
+      <c r="L70" s="24">
+        <v>55</v>
+      </c>
+      <c r="M70" s="34">
+        <v>55</v>
+      </c>
+      <c r="N70" s="24">
+        <v>55</v>
+      </c>
+      <c r="O70" s="35"/>
+      <c r="P70" s="43"/>
+      <c r="Q70" s="49"/>
+      <c r="R70" s="50"/>
+    </row>
+    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="9">
+        <v>37369815388</v>
+      </c>
+      <c r="D71" s="23">
+        <v>55</v>
+      </c>
+      <c r="E71" s="24">
+        <v>55</v>
+      </c>
+      <c r="F71" s="24">
+        <v>55</v>
+      </c>
+      <c r="G71" s="24">
+        <v>55</v>
+      </c>
+      <c r="H71" s="24">
+        <v>55</v>
+      </c>
+      <c r="I71" s="24">
+        <v>55</v>
+      </c>
+      <c r="J71" s="24">
+        <v>55</v>
+      </c>
+      <c r="K71" s="24">
+        <v>55</v>
+      </c>
+      <c r="L71" s="24">
+        <v>55</v>
+      </c>
+      <c r="M71" s="36"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="37">
+        <v>55</v>
+      </c>
+      <c r="P71" s="43"/>
+      <c r="Q71" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R71" s="50"/>
+    </row>
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="9">
+        <v>358406402278</v>
+      </c>
+      <c r="D72" s="23">
+        <v>155</v>
+      </c>
+      <c r="E72" s="24">
+        <v>155</v>
+      </c>
+      <c r="F72" s="24">
+        <v>155</v>
+      </c>
+      <c r="G72" s="24">
+        <v>155</v>
+      </c>
+      <c r="H72" s="24">
+        <v>155</v>
+      </c>
+      <c r="I72" s="24">
+        <v>155</v>
+      </c>
+      <c r="J72" s="24">
+        <v>155</v>
+      </c>
+      <c r="K72" s="24">
+        <v>155</v>
+      </c>
+      <c r="L72" s="24">
+        <v>155</v>
+      </c>
+      <c r="M72" s="34">
+        <v>155</v>
+      </c>
+      <c r="N72" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="O72" s="35"/>
+      <c r="P72" s="43"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="50"/>
+    </row>
+    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="9">
+        <v>786602562</v>
+      </c>
+      <c r="D73" s="23">
+        <v>155</v>
+      </c>
+      <c r="E73" s="24">
+        <v>155</v>
+      </c>
+      <c r="F73" s="26"/>
+      <c r="G73" s="24">
+        <v>155</v>
+      </c>
+      <c r="H73" s="24">
+        <v>155</v>
+      </c>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="24">
+        <v>155</v>
+      </c>
+      <c r="M73" s="36"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="37">
+        <v>155</v>
+      </c>
+      <c r="P73" s="43"/>
+      <c r="Q73" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R73" s="50"/>
+    </row>
+    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="9">
+        <v>37379117788</v>
+      </c>
+      <c r="D74" s="23">
+        <v>55</v>
+      </c>
+      <c r="E74" s="24">
+        <v>55</v>
+      </c>
+      <c r="F74" s="24">
+        <v>55</v>
+      </c>
+      <c r="G74" s="24">
+        <v>55</v>
+      </c>
+      <c r="H74" s="24">
+        <v>55</v>
+      </c>
+      <c r="I74" s="24">
+        <v>55</v>
+      </c>
+      <c r="J74" s="24">
+        <v>55</v>
+      </c>
+      <c r="K74" s="24">
+        <v>55</v>
+      </c>
+      <c r="L74" s="24">
+        <v>55</v>
+      </c>
+      <c r="M74" s="34">
+        <v>55</v>
+      </c>
+      <c r="N74" s="25"/>
+      <c r="O74" s="35"/>
+      <c r="P74" s="43"/>
+      <c r="Q74" s="51" t="s">
+        <v>172</v>
+      </c>
+      <c r="R74" s="50"/>
+    </row>
+    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="9">
+        <v>741228820</v>
+      </c>
+      <c r="D75" s="23">
+        <v>155</v>
+      </c>
+      <c r="E75" s="24">
+        <v>155</v>
+      </c>
+      <c r="F75" s="24">
+        <v>155</v>
+      </c>
+      <c r="G75" s="24">
+        <v>155</v>
+      </c>
+      <c r="H75" s="24">
+        <v>155</v>
+      </c>
+      <c r="I75" s="24">
+        <v>155</v>
+      </c>
+      <c r="J75" s="24">
+        <v>155</v>
+      </c>
+      <c r="K75" s="24">
+        <v>155</v>
+      </c>
+      <c r="L75" s="25"/>
+      <c r="M75" s="36"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="37">
+        <v>155</v>
+      </c>
+      <c r="P75" s="43"/>
+      <c r="Q75" s="49"/>
+      <c r="R75" s="50"/>
+    </row>
+    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="9">
+        <v>741178279</v>
+      </c>
+      <c r="D76" s="23">
+        <v>155</v>
+      </c>
+      <c r="E76" s="24">
+        <v>155</v>
+      </c>
+      <c r="F76" s="24">
+        <v>155</v>
+      </c>
+      <c r="G76" s="24">
+        <v>155</v>
+      </c>
+      <c r="H76" s="24">
+        <v>155</v>
+      </c>
+      <c r="I76" s="24">
+        <v>155</v>
+      </c>
+      <c r="J76" s="24">
+        <v>155</v>
+      </c>
+      <c r="K76" s="24">
+        <v>155</v>
+      </c>
+      <c r="L76" s="24">
+        <v>155</v>
+      </c>
+      <c r="M76" s="36"/>
+      <c r="N76" s="25"/>
+      <c r="O76" s="37">
+        <v>155</v>
+      </c>
+      <c r="P76" s="43"/>
+      <c r="Q76" s="49"/>
+      <c r="R76" s="50"/>
+    </row>
+    <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="19">
+        <v>748997484</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="28">
+        <v>155</v>
+      </c>
+      <c r="F77" s="28">
+        <v>155</v>
+      </c>
+      <c r="G77" s="28">
+        <v>155</v>
+      </c>
+      <c r="H77" s="28">
+        <v>155</v>
+      </c>
+      <c r="I77" s="28">
+        <v>155</v>
+      </c>
+      <c r="J77" s="28">
+        <v>155</v>
+      </c>
+      <c r="K77" s="28">
+        <v>155</v>
+      </c>
+      <c r="L77" s="28">
+        <v>155</v>
+      </c>
+      <c r="M77" s="36"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="39">
+        <v>155</v>
+      </c>
+      <c r="P77" s="43"/>
+      <c r="Q77" s="49"/>
+      <c r="R77" s="50"/>
+    </row>
+    <row r="78" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="55">
+        <v>726862381</v>
+      </c>
+      <c r="D78" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" s="57">
+        <v>80</v>
+      </c>
+      <c r="G78" s="57">
+        <v>80</v>
+      </c>
+      <c r="H78" s="61"/>
+      <c r="I78" s="61"/>
+      <c r="J78" s="61"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="61"/>
+      <c r="M78" s="62"/>
+      <c r="N78" s="61"/>
+      <c r="O78" s="63"/>
+      <c r="P78" s="64" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q78" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="R78" s="66" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="68" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="67">
+        <v>729973839</v>
+      </c>
+      <c r="D79" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="G79" s="69">
+        <v>155</v>
+      </c>
+      <c r="H79" s="69">
+        <v>155</v>
+      </c>
+      <c r="I79" s="69">
+        <v>155</v>
+      </c>
+      <c r="J79" s="69">
+        <v>155</v>
+      </c>
+      <c r="K79" s="69">
+        <v>155</v>
+      </c>
+      <c r="L79" s="69">
+        <v>155</v>
+      </c>
+      <c r="M79" s="70">
+        <v>155</v>
+      </c>
+      <c r="N79" s="69">
+        <v>155</v>
+      </c>
+      <c r="O79" s="71"/>
+      <c r="P79" s="72"/>
+      <c r="Q79" s="73"/>
+      <c r="R79" s="72"/>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A80" s="58"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="58"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="59"/>
+      <c r="G80" s="59"/>
+      <c r="H80" s="60"/>
+      <c r="I80" s="60"/>
+      <c r="J80" s="60"/>
+      <c r="K80" s="60"/>
+      <c r="L80" s="60"/>
+      <c r="M80" s="60"/>
+      <c r="N80" s="60"/>
+      <c r="O80" s="60"/>
+      <c r="P80" s="60"/>
+      <c r="Q80" s="60"/>
+      <c r="R80" s="60"/>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A81" s="58"/>
+      <c r="B81" s="58"/>
+      <c r="C81" s="58"/>
+      <c r="D81" s="59"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="59"/>
+      <c r="G81" s="59"/>
+      <c r="H81" s="59"/>
+      <c r="I81" s="59"/>
+      <c r="J81" s="59"/>
+      <c r="K81" s="59"/>
+      <c r="L81" s="59"/>
+      <c r="M81" s="59"/>
+      <c r="N81" s="59"/>
+      <c r="O81" s="60"/>
+      <c r="P81" s="60"/>
+      <c r="Q81" s="60"/>
+      <c r="R81" s="60"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R81" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{7A0E3923-E8B5-4DED-9F5B-CBCB87BB9304}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{20064C3F-82CC-4F00-AE8C-8A491F56AF29}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{3581A3D9-2892-45B0-867F-73439907C110}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{286E8E58-B3F1-46E8-BD10-E96D6F6B91C0}"/>
+    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{14C37E27-C2E9-4B5E-9D5E-B7FA446D310A}"/>
+    <hyperlink ref="A56" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{CD048FFE-3993-4F9A-9C85-2313921303E1}"/>
+    <hyperlink ref="A58" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{34BADA3D-F8C1-4091-BFC5-C5ED726FE8CE}"/>
+    <hyperlink ref="A62" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{4EAC9DF6-662E-4603-8A3D-D78877DFA6A1}"/>
+    <hyperlink ref="A66" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{B28C9CBB-7945-4A5A-AAF0-1B54D25BE40E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/app/fisierele/an32324.xlsx
+++ b/app/fisierele/an32324.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 3_2023-2024 ayurveda\pentru IULIAN\Facturi\20240630_pt iiulie 2023_emise icu data 30 iunie 2024__ facturi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F93764ED-C598-42DD-B5BE-9A1EA6B997ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D857F5-CF74-48EE-9367-ECC59DB4F4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 3" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="180">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -81,6 +81,12 @@
     <t>Plata iul 2024</t>
   </si>
   <si>
+    <t>george.bondor@yahoo.com</t>
+  </si>
+  <si>
+    <t>Bondor George</t>
+  </si>
+  <si>
     <t>geaniung@yahoo.com</t>
   </si>
   <si>
@@ -93,16 +99,485 @@
     <t>Stoleru Octavian</t>
   </si>
   <si>
+    <t>carmenmariananeagu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Neagu Carmen-Mariana</t>
+  </si>
+  <si>
+    <t>sorina_fekeas@yahoo.de</t>
+  </si>
+  <si>
+    <t>Fekeas Sorina</t>
+  </si>
+  <si>
+    <t>daciamighiu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mighiu Dacia Maria</t>
+  </si>
+  <si>
+    <t>dragosdraganescu14@gmail.com</t>
+  </si>
+  <si>
+    <t>Draganescu Florentin Dragos</t>
+  </si>
+  <si>
+    <t>laura120675@gmail.com</t>
+  </si>
+  <si>
+    <t>Ilie Laura</t>
+  </si>
+  <si>
+    <t>irinaaniculae@gmail.com</t>
+  </si>
+  <si>
+    <t>Niculae Irina</t>
+  </si>
+  <si>
+    <t>gabriela.malonyai@gmail.com</t>
+  </si>
+  <si>
+    <t>Malonyai Gabriela Aurora</t>
+  </si>
+  <si>
+    <t>lili_ion@hotmail.com</t>
+  </si>
+  <si>
+    <t>Lili Ion</t>
+  </si>
+  <si>
+    <t>angelavnalbantu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Nalbantu Angela</t>
+  </si>
+  <si>
+    <t>vladescu.rodica@gmail.com</t>
+  </si>
+  <si>
+    <t>Vladescu Rodica</t>
+  </si>
+  <si>
+    <t>constantaculcea@yahoo.com</t>
+  </si>
+  <si>
+    <t>Culcea Constanta</t>
+  </si>
+  <si>
+    <t>diana_mocica@yahoo.com</t>
+  </si>
+  <si>
+    <t>Mocica Diana</t>
+  </si>
+  <si>
+    <t>camiraci@yahoo.com</t>
+  </si>
+  <si>
+    <t>Raceanu Camelia</t>
+  </si>
+  <si>
+    <t>oloiervm@yahoo.com</t>
+  </si>
+  <si>
+    <t>Oloier Violeta</t>
+  </si>
+  <si>
+    <t>rusmaria77@yahoo.com</t>
+  </si>
+  <si>
+    <t>Rus Maria</t>
+  </si>
+  <si>
+    <t>mirbanmusat@gmail.com</t>
+  </si>
+  <si>
+    <t>Musat Mirban</t>
+  </si>
+  <si>
+    <t>diana.panciu@gmail.com</t>
+  </si>
+  <si>
+    <t>Panciu Diana-Valentina</t>
+  </si>
+  <si>
+    <t>ancastancescu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Stancescu Florina Anca</t>
+  </si>
+  <si>
+    <t>mirona55555@yahoo.com</t>
+  </si>
+  <si>
+    <t>Farcasi Mirona</t>
+  </si>
+  <si>
+    <t>loredanagrozea2012@gmail.com</t>
+  </si>
+  <si>
+    <t>Grozea Loredana</t>
+  </si>
+  <si>
+    <t>hb_andrea@yahoo.com</t>
+  </si>
+  <si>
+    <t>Hampel Binder Andrea Eniko</t>
+  </si>
+  <si>
+    <t>maria77ro@yahoo.com</t>
+  </si>
+  <si>
+    <t>Kolarik Annamaria</t>
+  </si>
+  <si>
+    <t>galileafarm@yahoo.com</t>
+  </si>
+  <si>
+    <t>Zayadna Maria</t>
+  </si>
+  <si>
+    <t>kinga_pop@yahoo.com</t>
+  </si>
+  <si>
+    <t>Lenghel Kinga</t>
+  </si>
+  <si>
+    <t>paveldoru@gmail.com</t>
+  </si>
+  <si>
+    <t>Pavel Doru</t>
+  </si>
+  <si>
+    <t>vali.grigore@icloud.com</t>
+  </si>
+  <si>
+    <t>Grigore Valerica</t>
+  </si>
+  <si>
+    <t>mamacopiilor@yahoo.com</t>
+  </si>
+  <si>
+    <t>Hadar Ildiko Antonia</t>
+  </si>
+  <si>
+    <t>ionescuiulian7@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ionescu Dinu Iulian</t>
+  </si>
+  <si>
+    <t>elaapostol@yahoo.com</t>
+  </si>
+  <si>
+    <t>Apostol Mihaela Simona</t>
+  </si>
+  <si>
+    <t>danakiss@gmail.com</t>
+  </si>
+  <si>
+    <t>Kiss Dana</t>
+  </si>
+  <si>
+    <t>sorincsv@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ciurac Sorin Vasile</t>
+  </si>
+  <si>
+    <t>mariasorial.ayurveda@gmail.com</t>
+  </si>
+  <si>
+    <t>Sorial Maria</t>
+  </si>
+  <si>
+    <t>alexandra.soveja@yahoo.ro</t>
+  </si>
+  <si>
+    <t>Enachescu Alexandra</t>
+  </si>
+  <si>
+    <t>leonte_gaby@yahoo.com</t>
+  </si>
+  <si>
+    <t>Leonte Gabriela Lacramioara</t>
+  </si>
+  <si>
+    <t>clnicolescu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Nicolescu Carmen Leana</t>
+  </si>
+  <si>
+    <t>dorinacarp@yahoo.ca</t>
+  </si>
+  <si>
+    <t>Carp Dorina</t>
+  </si>
+  <si>
+    <t>bright555health@gmail.com</t>
+  </si>
+  <si>
+    <t>Dragan Despina</t>
+  </si>
+  <si>
+    <t>delia2211@gmail.com</t>
+  </si>
+  <si>
+    <t>Rusu Delia Mihaela</t>
+  </si>
+  <si>
+    <t>ed_firul_ariadnei@yahoo.com</t>
+  </si>
+  <si>
+    <t>Bazavan Ruxandra Ellana</t>
+  </si>
+  <si>
+    <t>d_daniella_r@yahoo.com</t>
+  </si>
+  <si>
+    <t>Racoti Daniela</t>
+  </si>
+  <si>
+    <t>vallystefan@gmail.com</t>
+  </si>
+  <si>
+    <t>Stefan Valentina</t>
+  </si>
+  <si>
+    <t>fhun8@hotmail.com</t>
+  </si>
+  <si>
+    <t>Hunecke Felicia</t>
+  </si>
+  <si>
+    <t>mimigorga@yahoo.com</t>
+  </si>
+  <si>
+    <t>Gorga Mariana</t>
+  </si>
+  <si>
+    <t>dan_moldovan@yahoo.com</t>
+  </si>
+  <si>
+    <t>Moldovan Dan</t>
+  </si>
+  <si>
+    <t>viomih@yahoo.com</t>
+  </si>
+  <si>
+    <t>Simion Viorica</t>
+  </si>
+  <si>
+    <t>condratdaniela@yahoo.com</t>
+  </si>
+  <si>
+    <t>Condrat Daniela</t>
+  </si>
+  <si>
+    <t>gabriela_georgeta@yahoo.com</t>
+  </si>
+  <si>
+    <t>Corocaescu Gabriela</t>
+  </si>
+  <si>
+    <t>sublima.somacentre@gmail.com</t>
+  </si>
+  <si>
+    <t>Istrate Diana</t>
+  </si>
+  <si>
+    <t>henriettamagyar@yahoo.com</t>
+  </si>
+  <si>
+    <t>Magyar Henrietta</t>
+  </si>
+  <si>
+    <t>simoneta7576@gmail.com</t>
+  </si>
+  <si>
+    <t>Muresan Simona</t>
+  </si>
+  <si>
+    <t>oanacovaliu89@gmail.com</t>
+  </si>
+  <si>
+    <t>Covaliu Oana Maria</t>
+  </si>
+  <si>
+    <t>dan_fara@yahoo.com</t>
+  </si>
+  <si>
+    <t>Fara Dan</t>
+  </si>
+  <si>
+    <t>gabichim1@yahoo.com</t>
+  </si>
+  <si>
+    <t>Ichim Gabriela</t>
+  </si>
+  <si>
+    <t>rodicaorosz21dan@yahoo.com</t>
+  </si>
+  <si>
+    <t>Orosz Rodica</t>
+  </si>
+  <si>
+    <t>uviorica@gmail.com</t>
+  </si>
+  <si>
+    <t>Malai Ungurean Viorica</t>
+  </si>
+  <si>
+    <t>ttini.iordan@gmail.com</t>
+  </si>
+  <si>
+    <t>Iordan Ttini</t>
+  </si>
+  <si>
+    <t>doinitakineto@yahoo.com</t>
+  </si>
+  <si>
+    <t>Trifan Doinita Blandinela</t>
+  </si>
+  <si>
+    <t>bogdan.claudia_t@yahoo.com</t>
+  </si>
+  <si>
+    <t>Gherase Claudia</t>
+  </si>
+  <si>
+    <t>catagil76@gmail.com</t>
+  </si>
+  <si>
+    <t>Miclos Gina</t>
+  </si>
+  <si>
+    <t>roalexis71@gmail.com</t>
+  </si>
+  <si>
+    <t>Nechit Romulus</t>
+  </si>
+  <si>
+    <t>cristinasanduv87@gmail.com</t>
+  </si>
+  <si>
+    <t>Sandu Cristina</t>
+  </si>
+  <si>
+    <t>tzaloj@yahoo.com</t>
+  </si>
+  <si>
+    <t>Zaloj Tatiana</t>
+  </si>
+  <si>
+    <t>lenavasvari@yahoo.com</t>
+  </si>
+  <si>
+    <t>Vasvari Ileana</t>
+  </si>
+  <si>
+    <t>veronica.doni@gmail.com</t>
+  </si>
+  <si>
+    <t>Doni Veronica</t>
+  </si>
+  <si>
+    <t>elvira.munteanu@yahoo.com</t>
+  </si>
+  <si>
+    <t>Munteanu Elvira</t>
+  </si>
+  <si>
+    <t>olga_n22@inbox.ru</t>
+  </si>
+  <si>
+    <t>Novojen Olga</t>
+  </si>
+  <si>
+    <t>valentinamaria108@gmail.com</t>
+  </si>
+  <si>
+    <t>Lankelin Valentina Maria</t>
+  </si>
+  <si>
+    <t>marinescurebecca4@gmail.com</t>
+  </si>
+  <si>
+    <t>Marinescu Rebecca Ana</t>
+  </si>
+  <si>
+    <t>aurvasilica@mail.ru</t>
+  </si>
+  <si>
+    <t>Vasilica Aurelia</t>
+  </si>
+  <si>
+    <t>florynn85@yahoo.com</t>
+  </si>
+  <si>
+    <t>Done Florin</t>
+  </si>
+  <si>
+    <t>ancag2@yahoo.com</t>
+  </si>
+  <si>
+    <t>Gurau Anca</t>
+  </si>
+  <si>
+    <t>boisteanuisabela@yahoo.com</t>
+  </si>
+  <si>
+    <t>Boisteanu Isabela</t>
+  </si>
+  <si>
+    <t>anitta_ro@yahoo.com</t>
+  </si>
+  <si>
+    <t>Balaceanu Tania</t>
+  </si>
+  <si>
+    <t>lidiaistodorescu@yahoo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Istodorescu Lidia</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>nu trebuie</t>
+  </si>
+  <si>
     <t>Factura iun 2024</t>
   </si>
   <si>
     <t>Are cont pe site</t>
   </si>
   <si>
+    <t>nu</t>
+  </si>
+  <si>
+    <t>danaiza2000@yahoo.com</t>
+  </si>
+  <si>
+    <t>Georghiou Izabel</t>
+  </si>
+  <si>
     <t>Factura iul 2024</t>
   </si>
   <si>
+    <t>s-a retras</t>
+  </si>
+  <si>
     <t>Observații</t>
+  </si>
+  <si>
+    <t>nu ne răspunde la email</t>
+  </si>
+  <si>
+    <t>nu a plătit restanta</t>
   </si>
 </sst>
 </file>
@@ -933,20 +1408,20 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="7" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" customWidth="1"/>
-    <col min="18" max="18" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" width="18.90625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" customWidth="1"/>
+    <col min="18" max="18" width="21.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="6" customFormat="1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -990,24 +1465,24 @@
         <v>13</v>
       </c>
       <c r="O1" s="36" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="P1" s="36" t="s">
-        <v>18</v>
+        <v>170</v>
       </c>
       <c r="Q1" s="37" t="s">
-        <v>19</v>
+        <v>171</v>
       </c>
       <c r="R1" s="41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="12">
         <v>728717849</v>
@@ -1050,12 +1525,12 @@
       <c r="Q2" s="38"/>
       <c r="R2" s="42"/>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="9">
         <v>722358649</v>
@@ -1098,890 +1573,2102 @@
       <c r="Q3" s="39"/>
       <c r="R3" s="43"/>
     </row>
-    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
+    <row r="4" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="9">
+        <v>726226937</v>
+      </c>
+      <c r="D4" s="23">
+        <v>155</v>
+      </c>
+      <c r="E4" s="24">
+        <v>155</v>
+      </c>
+      <c r="F4" s="24">
+        <v>155</v>
+      </c>
+      <c r="G4" s="24">
+        <v>155</v>
+      </c>
+      <c r="H4" s="24">
+        <v>155</v>
+      </c>
+      <c r="I4" s="24">
+        <v>155</v>
+      </c>
+      <c r="J4" s="24">
+        <v>155</v>
+      </c>
+      <c r="K4" s="24">
+        <v>155</v>
+      </c>
+      <c r="L4" s="24">
+        <v>155</v>
+      </c>
       <c r="M4" s="34"/>
       <c r="N4" s="25"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="64"/>
+      <c r="O4" s="59">
+        <v>155</v>
+      </c>
+      <c r="P4" s="64">
+        <v>155</v>
+      </c>
       <c r="Q4" s="39"/>
       <c r="R4" s="43"/>
     </row>
-    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+    <row r="5" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9">
+        <v>729142747</v>
+      </c>
+      <c r="D5" s="23">
+        <v>155</v>
+      </c>
+      <c r="E5" s="24">
+        <v>155</v>
+      </c>
+      <c r="F5" s="24">
+        <v>155</v>
+      </c>
+      <c r="G5" s="24">
+        <v>155</v>
+      </c>
+      <c r="H5" s="24">
+        <v>155</v>
+      </c>
+      <c r="I5" s="24">
+        <v>155</v>
+      </c>
+      <c r="J5" s="24">
+        <v>155</v>
+      </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
       <c r="M5" s="34"/>
       <c r="N5" s="25"/>
-      <c r="O5" s="59"/>
-      <c r="P5" s="64"/>
+      <c r="O5" s="59">
+        <v>155</v>
+      </c>
+      <c r="P5" s="64">
+        <v>155</v>
+      </c>
       <c r="Q5" s="39"/>
       <c r="R5" s="43"/>
     </row>
-    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="24"/>
+    <row r="6" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9">
+        <v>33668109988</v>
+      </c>
+      <c r="D6" s="23">
+        <v>155</v>
+      </c>
+      <c r="E6" s="24">
+        <v>155</v>
+      </c>
+      <c r="F6" s="24">
+        <v>155</v>
+      </c>
+      <c r="G6" s="24">
+        <v>155</v>
+      </c>
+      <c r="H6" s="24">
+        <v>155</v>
+      </c>
+      <c r="I6" s="24">
+        <v>155</v>
+      </c>
+      <c r="J6" s="24">
+        <v>155</v>
+      </c>
+      <c r="K6" s="24">
+        <v>155</v>
+      </c>
+      <c r="L6" s="24">
+        <v>155</v>
+      </c>
+      <c r="M6" s="33">
+        <v>155</v>
+      </c>
+      <c r="N6" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="O6" s="59"/>
       <c r="P6" s="63"/>
       <c r="Q6" s="39"/>
       <c r="R6" s="43"/>
     </row>
-    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
+    <row r="7" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="9">
+        <v>755662099</v>
+      </c>
+      <c r="D7" s="23">
+        <v>155</v>
+      </c>
+      <c r="E7" s="24">
+        <v>155</v>
+      </c>
+      <c r="F7" s="24">
+        <v>155</v>
+      </c>
+      <c r="G7" s="24">
+        <v>155</v>
+      </c>
+      <c r="H7" s="24">
+        <v>155</v>
+      </c>
+      <c r="I7" s="24">
+        <v>155</v>
+      </c>
+      <c r="J7" s="24">
+        <v>155</v>
+      </c>
+      <c r="K7" s="24">
+        <v>155</v>
+      </c>
+      <c r="L7" s="24">
+        <v>155</v>
+      </c>
       <c r="M7" s="34"/>
       <c r="N7" s="25"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="64"/>
+      <c r="O7" s="59">
+        <v>155</v>
+      </c>
+      <c r="P7" s="64">
+        <v>155</v>
+      </c>
       <c r="Q7" s="39"/>
       <c r="R7" s="43"/>
     </row>
-    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+    <row r="8" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="17">
+        <v>758573056</v>
+      </c>
+      <c r="D8" s="23">
+        <v>155</v>
+      </c>
+      <c r="E8" s="24">
+        <v>155</v>
+      </c>
+      <c r="F8" s="24">
+        <v>155</v>
+      </c>
+      <c r="G8" s="24">
+        <v>155</v>
+      </c>
+      <c r="H8" s="24">
+        <v>155</v>
+      </c>
+      <c r="I8" s="24">
+        <v>155</v>
+      </c>
+      <c r="J8" s="24">
+        <v>155</v>
+      </c>
+      <c r="K8" s="24">
+        <v>155</v>
+      </c>
+      <c r="L8" s="24">
+        <v>155</v>
+      </c>
       <c r="M8" s="34"/>
       <c r="N8" s="25"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="64"/>
+      <c r="O8" s="59">
+        <v>155</v>
+      </c>
+      <c r="P8" s="64">
+        <v>155</v>
+      </c>
       <c r="Q8" s="39"/>
       <c r="R8" s="43"/>
     </row>
-    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="24"/>
+    <row r="9" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="9">
+        <v>751982719</v>
+      </c>
+      <c r="D9" s="23">
+        <v>155</v>
+      </c>
+      <c r="E9" s="24">
+        <v>155</v>
+      </c>
+      <c r="F9" s="24">
+        <v>155</v>
+      </c>
+      <c r="G9" s="24">
+        <v>155</v>
+      </c>
+      <c r="H9" s="24">
+        <v>155</v>
+      </c>
+      <c r="I9" s="24">
+        <v>155</v>
+      </c>
+      <c r="J9" s="24">
+        <v>155</v>
+      </c>
+      <c r="K9" s="24">
+        <v>155</v>
+      </c>
+      <c r="L9" s="24">
+        <v>155</v>
+      </c>
+      <c r="M9" s="33">
+        <v>155</v>
+      </c>
+      <c r="N9" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="O9" s="59"/>
       <c r="P9" s="63"/>
       <c r="Q9" s="39"/>
       <c r="R9" s="43"/>
     </row>
-    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
+    <row r="10" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="9">
+        <v>752015542</v>
+      </c>
+      <c r="D10" s="23">
+        <v>155</v>
+      </c>
+      <c r="E10" s="24">
+        <v>155</v>
+      </c>
+      <c r="F10" s="24">
+        <v>155</v>
+      </c>
+      <c r="G10" s="24">
+        <v>155</v>
+      </c>
+      <c r="H10" s="24">
+        <v>155</v>
+      </c>
+      <c r="I10" s="24">
+        <v>155</v>
+      </c>
+      <c r="J10" s="24">
+        <v>155</v>
+      </c>
+      <c r="K10" s="24">
+        <v>155</v>
+      </c>
       <c r="L10" s="25"/>
       <c r="M10" s="34"/>
       <c r="N10" s="25"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="64"/>
+      <c r="O10" s="59">
+        <v>155</v>
+      </c>
+      <c r="P10" s="64">
+        <v>155</v>
+      </c>
       <c r="Q10" s="39"/>
       <c r="R10" s="43"/>
     </row>
-    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
+    <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="9">
+        <v>752094420</v>
+      </c>
+      <c r="D11" s="23">
+        <v>155</v>
+      </c>
+      <c r="E11" s="24">
+        <v>155</v>
+      </c>
+      <c r="F11" s="24">
+        <v>155</v>
+      </c>
+      <c r="G11" s="24">
+        <v>155</v>
+      </c>
+      <c r="H11" s="24">
+        <v>155</v>
+      </c>
+      <c r="I11" s="24">
+        <v>155</v>
+      </c>
+      <c r="J11" s="24">
+        <v>155</v>
+      </c>
+      <c r="K11" s="24">
+        <v>155</v>
+      </c>
+      <c r="L11" s="24">
+        <v>155</v>
+      </c>
       <c r="M11" s="34"/>
       <c r="N11" s="25"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="64"/>
+      <c r="O11" s="59">
+        <v>155</v>
+      </c>
+      <c r="P11" s="64">
+        <v>155</v>
+      </c>
       <c r="Q11" s="39"/>
       <c r="R11" s="10"/>
     </row>
-    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
+    <row r="12" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="9">
+        <v>12032470380</v>
+      </c>
+      <c r="D12" s="23">
+        <v>155</v>
+      </c>
+      <c r="E12" s="24">
+        <v>155</v>
+      </c>
+      <c r="F12" s="24">
+        <v>155</v>
+      </c>
+      <c r="G12" s="24">
+        <v>155</v>
+      </c>
+      <c r="H12" s="24">
+        <v>155</v>
+      </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
       <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="34"/>
       <c r="N12" s="25"/>
-      <c r="O12" s="59"/>
-      <c r="P12" s="64"/>
+      <c r="O12" s="59">
+        <v>155</v>
+      </c>
+      <c r="P12" s="64">
+        <v>155</v>
+      </c>
       <c r="Q12" s="39"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
+    <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="9">
+        <v>749221731</v>
+      </c>
+      <c r="D13" s="23">
+        <v>155</v>
+      </c>
+      <c r="E13" s="24">
+        <v>155</v>
+      </c>
+      <c r="F13" s="24">
+        <v>155</v>
+      </c>
+      <c r="G13" s="24">
+        <v>155</v>
+      </c>
+      <c r="H13" s="24">
+        <v>155</v>
+      </c>
+      <c r="I13" s="24">
+        <v>155</v>
+      </c>
+      <c r="J13" s="24">
+        <v>155</v>
+      </c>
+      <c r="K13" s="24">
+        <v>155</v>
+      </c>
+      <c r="L13" s="24">
+        <v>155</v>
+      </c>
       <c r="M13" s="34"/>
       <c r="N13" s="25"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="64"/>
+      <c r="O13" s="59">
+        <v>155</v>
+      </c>
+      <c r="P13" s="64">
+        <v>155</v>
+      </c>
       <c r="Q13" s="39"/>
       <c r="R13" s="43"/>
     </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
+    <row r="14" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="9">
+        <v>767086957</v>
+      </c>
+      <c r="D14" s="23">
+        <v>155</v>
+      </c>
+      <c r="E14" s="24">
+        <v>155</v>
+      </c>
+      <c r="F14" s="24">
+        <v>155</v>
+      </c>
+      <c r="G14" s="24">
+        <v>155</v>
+      </c>
+      <c r="H14" s="24">
+        <v>155</v>
+      </c>
+      <c r="I14" s="24">
+        <v>155</v>
+      </c>
+      <c r="J14" s="24">
+        <v>155</v>
+      </c>
+      <c r="K14" s="24">
+        <v>155</v>
+      </c>
+      <c r="L14" s="24">
+        <v>155</v>
+      </c>
       <c r="M14" s="34"/>
       <c r="N14" s="25"/>
-      <c r="O14" s="59"/>
-      <c r="P14" s="64"/>
+      <c r="O14" s="59">
+        <v>155</v>
+      </c>
+      <c r="P14" s="64">
+        <v>155</v>
+      </c>
       <c r="Q14" s="39"/>
       <c r="R14" s="43"/>
     </row>
-    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="9">
+        <v>726333128</v>
+      </c>
+      <c r="D15" s="23">
+        <v>155</v>
+      </c>
+      <c r="E15" s="24">
+        <v>155</v>
+      </c>
+      <c r="F15" s="24">
+        <v>155</v>
+      </c>
+      <c r="G15" s="24">
+        <v>155</v>
+      </c>
+      <c r="H15" s="24">
+        <v>155</v>
+      </c>
+      <c r="I15" s="24">
+        <v>155</v>
+      </c>
+      <c r="J15" s="24">
+        <v>155</v>
+      </c>
+      <c r="K15" s="24">
+        <v>155</v>
+      </c>
+      <c r="L15" s="24">
+        <v>155</v>
+      </c>
       <c r="M15" s="34"/>
       <c r="N15" s="25"/>
-      <c r="O15" s="59"/>
-      <c r="P15" s="64"/>
+      <c r="O15" s="59">
+        <v>155</v>
+      </c>
+      <c r="P15" s="64">
+        <v>155</v>
+      </c>
       <c r="Q15" s="39"/>
       <c r="R15" s="43"/>
     </row>
-    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="24"/>
+    <row r="16" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="9">
+        <v>743554064</v>
+      </c>
+      <c r="D16" s="23">
+        <v>155</v>
+      </c>
+      <c r="E16" s="24">
+        <v>155</v>
+      </c>
+      <c r="F16" s="24">
+        <v>155</v>
+      </c>
+      <c r="G16" s="24">
+        <v>155</v>
+      </c>
+      <c r="H16" s="24">
+        <v>155</v>
+      </c>
+      <c r="I16" s="24">
+        <v>155</v>
+      </c>
+      <c r="J16" s="24">
+        <v>155</v>
+      </c>
+      <c r="K16" s="24">
+        <v>155</v>
+      </c>
+      <c r="L16" s="24">
+        <v>155</v>
+      </c>
+      <c r="M16" s="33">
+        <v>155</v>
+      </c>
+      <c r="N16" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="O16" s="59"/>
       <c r="P16" s="63"/>
       <c r="Q16" s="39"/>
       <c r="R16" s="43"/>
     </row>
-    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
+    <row r="17" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="9">
+        <v>748702514</v>
+      </c>
+      <c r="D17" s="23">
+        <v>155</v>
+      </c>
+      <c r="E17" s="24">
+        <v>155</v>
+      </c>
+      <c r="F17" s="24">
+        <v>155</v>
+      </c>
+      <c r="G17" s="24">
+        <v>155</v>
+      </c>
+      <c r="H17" s="24">
+        <v>155</v>
+      </c>
+      <c r="I17" s="24">
+        <v>155</v>
+      </c>
+      <c r="J17" s="24">
+        <v>155</v>
+      </c>
+      <c r="K17" s="24">
+        <v>155</v>
+      </c>
+      <c r="L17" s="24">
+        <v>155</v>
+      </c>
       <c r="M17" s="34"/>
       <c r="N17" s="25"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="64"/>
+      <c r="O17" s="59">
+        <v>155</v>
+      </c>
+      <c r="P17" s="64">
+        <v>155</v>
+      </c>
       <c r="Q17" s="39"/>
       <c r="R17" s="43"/>
     </row>
-    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
+    <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="9">
+        <v>743981231</v>
+      </c>
+      <c r="D18" s="23">
+        <v>155</v>
+      </c>
+      <c r="E18" s="24">
+        <v>155</v>
+      </c>
+      <c r="F18" s="24">
+        <v>155</v>
+      </c>
+      <c r="G18" s="24">
+        <v>155</v>
+      </c>
+      <c r="H18" s="24">
+        <v>155</v>
+      </c>
+      <c r="I18" s="24">
+        <v>155</v>
+      </c>
+      <c r="J18" s="24">
+        <v>155</v>
+      </c>
+      <c r="K18" s="24">
+        <v>155</v>
+      </c>
+      <c r="L18" s="24">
+        <v>155</v>
+      </c>
       <c r="M18" s="34"/>
       <c r="N18" s="25"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="64"/>
+      <c r="O18" s="59">
+        <v>155</v>
+      </c>
+      <c r="P18" s="64">
+        <v>155</v>
+      </c>
       <c r="Q18" s="39"/>
       <c r="R18" s="43"/>
     </row>
-    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
+    <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="9">
+        <v>735981273</v>
+      </c>
+      <c r="D19" s="23">
+        <v>135</v>
+      </c>
+      <c r="E19" s="24">
+        <v>135</v>
+      </c>
+      <c r="F19" s="24">
+        <v>135</v>
+      </c>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
+      <c r="J19" s="24">
+        <v>135</v>
+      </c>
+      <c r="K19" s="24">
+        <v>135</v>
+      </c>
+      <c r="L19" s="24">
+        <v>135</v>
+      </c>
       <c r="M19" s="34"/>
       <c r="N19" s="25"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="64"/>
+      <c r="O19" s="59">
+        <v>135</v>
+      </c>
+      <c r="P19" s="64">
+        <v>135</v>
+      </c>
       <c r="Q19" s="39"/>
       <c r="R19" s="43"/>
     </row>
-    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="24"/>
+    <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="9">
+        <v>729677945</v>
+      </c>
+      <c r="D20" s="23">
+        <v>155</v>
+      </c>
+      <c r="E20" s="24">
+        <v>155</v>
+      </c>
+      <c r="F20" s="24">
+        <v>155</v>
+      </c>
+      <c r="G20" s="24">
+        <v>155</v>
+      </c>
+      <c r="H20" s="24">
+        <v>155</v>
+      </c>
+      <c r="I20" s="24">
+        <v>155</v>
+      </c>
+      <c r="J20" s="24">
+        <v>155</v>
+      </c>
+      <c r="K20" s="24">
+        <v>155</v>
+      </c>
+      <c r="L20" s="24">
+        <v>155</v>
+      </c>
+      <c r="M20" s="33">
+        <v>155</v>
+      </c>
+      <c r="N20" s="24">
+        <v>155</v>
+      </c>
       <c r="O20" s="59"/>
       <c r="P20" s="63"/>
       <c r="Q20" s="39"/>
       <c r="R20" s="43"/>
     </row>
-    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
+    <row r="21" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="9">
+        <v>758527832</v>
+      </c>
+      <c r="D21" s="23">
+        <v>155</v>
+      </c>
+      <c r="E21" s="24">
+        <v>155</v>
+      </c>
+      <c r="F21" s="24">
+        <v>155</v>
+      </c>
+      <c r="G21" s="24">
+        <v>155</v>
+      </c>
+      <c r="H21" s="24">
+        <v>155</v>
+      </c>
+      <c r="I21" s="24">
+        <v>155</v>
+      </c>
+      <c r="J21" s="24">
+        <v>155</v>
+      </c>
+      <c r="K21" s="24">
+        <v>155</v>
+      </c>
+      <c r="L21" s="24">
+        <v>155</v>
+      </c>
       <c r="M21" s="34"/>
       <c r="N21" s="25"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="64"/>
+      <c r="O21" s="59">
+        <v>155</v>
+      </c>
+      <c r="P21" s="64">
+        <v>155</v>
+      </c>
       <c r="Q21" s="39"/>
       <c r="R21" s="43"/>
     </row>
-    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="28"/>
+    <row r="22" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="19">
+        <v>741573383</v>
+      </c>
+      <c r="D22" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="H22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="M22" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="N22" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="O22" s="60"/>
       <c r="P22" s="63"/>
       <c r="Q22" s="39"/>
       <c r="R22" s="43"/>
     </row>
-    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="33"/>
+    <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="9">
+        <v>740136283</v>
+      </c>
+      <c r="D23" s="23">
+        <v>155</v>
+      </c>
+      <c r="E23" s="24">
+        <v>155</v>
+      </c>
+      <c r="F23" s="24">
+        <v>155</v>
+      </c>
+      <c r="G23" s="24">
+        <v>155</v>
+      </c>
+      <c r="H23" s="24">
+        <v>155</v>
+      </c>
+      <c r="I23" s="24">
+        <v>155</v>
+      </c>
+      <c r="J23" s="24">
+        <v>155</v>
+      </c>
+      <c r="K23" s="24">
+        <v>155</v>
+      </c>
+      <c r="L23" s="24">
+        <v>155</v>
+      </c>
+      <c r="M23" s="33">
+        <v>155</v>
+      </c>
       <c r="N23" s="25"/>
-      <c r="O23" s="59"/>
+      <c r="O23" s="59">
+        <v>155</v>
+      </c>
       <c r="P23" s="63"/>
       <c r="Q23" s="39"/>
       <c r="R23" s="43"/>
     </row>
-    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="24"/>
+    <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="9">
+        <v>752240280</v>
+      </c>
+      <c r="D24" s="23">
+        <v>155</v>
+      </c>
+      <c r="E24" s="24">
+        <v>155</v>
+      </c>
+      <c r="F24" s="24">
+        <v>155</v>
+      </c>
+      <c r="G24" s="24">
+        <v>155</v>
+      </c>
+      <c r="H24" s="24">
+        <v>155</v>
+      </c>
+      <c r="I24" s="24">
+        <v>155</v>
+      </c>
+      <c r="J24" s="24">
+        <v>155</v>
+      </c>
+      <c r="K24" s="24">
+        <v>155</v>
+      </c>
+      <c r="L24" s="24">
+        <v>155</v>
+      </c>
+      <c r="M24" s="33">
+        <v>155</v>
+      </c>
+      <c r="N24" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="O24" s="59"/>
       <c r="P24" s="63"/>
       <c r="Q24" s="39"/>
       <c r="R24" s="43"/>
     </row>
-    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
+    <row r="25" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" s="9">
+        <v>745081557</v>
+      </c>
+      <c r="D25" s="23">
+        <v>155</v>
+      </c>
+      <c r="E25" s="24">
+        <v>155</v>
+      </c>
+      <c r="F25" s="24">
+        <v>155</v>
+      </c>
+      <c r="G25" s="24">
+        <v>155</v>
+      </c>
+      <c r="H25" s="24">
+        <v>155</v>
+      </c>
+      <c r="I25" s="24">
+        <v>155</v>
+      </c>
+      <c r="J25" s="24">
+        <v>155</v>
+      </c>
+      <c r="K25" s="24">
+        <v>155</v>
+      </c>
+      <c r="L25" s="24">
+        <v>155</v>
+      </c>
       <c r="M25" s="34"/>
       <c r="N25" s="25"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="64"/>
+      <c r="O25" s="59">
+        <v>155</v>
+      </c>
+      <c r="P25" s="64">
+        <v>155</v>
+      </c>
       <c r="Q25" s="39"/>
       <c r="R25" s="43"/>
     </row>
-    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
+    <row r="26" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="9">
+        <v>744761408</v>
+      </c>
+      <c r="D26" s="23">
+        <v>155</v>
+      </c>
+      <c r="E26" s="24">
+        <v>155</v>
+      </c>
+      <c r="F26" s="30">
+        <v>155</v>
+      </c>
+      <c r="G26" s="30">
+        <v>155</v>
+      </c>
+      <c r="H26" s="30">
+        <v>155</v>
+      </c>
+      <c r="I26" s="30">
+        <v>155</v>
+      </c>
+      <c r="J26" s="30">
+        <v>155</v>
+      </c>
+      <c r="K26" s="30">
+        <v>155</v>
+      </c>
+      <c r="L26" s="30">
+        <v>155</v>
+      </c>
       <c r="M26" s="34"/>
       <c r="N26" s="25"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="64"/>
+      <c r="O26" s="59">
+        <v>155</v>
+      </c>
+      <c r="P26" s="64">
+        <v>155</v>
+      </c>
       <c r="Q26" s="39"/>
       <c r="R26" s="43"/>
     </row>
-    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
+    <row r="27" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="9">
+        <v>756318760</v>
+      </c>
+      <c r="D27" s="23">
+        <v>155</v>
+      </c>
+      <c r="E27" s="24">
+        <v>155</v>
+      </c>
+      <c r="F27" s="24">
+        <v>155</v>
+      </c>
+      <c r="G27" s="24">
+        <v>155</v>
+      </c>
+      <c r="H27" s="24">
+        <v>155</v>
+      </c>
+      <c r="I27" s="24">
+        <v>155</v>
+      </c>
+      <c r="J27" s="24">
+        <v>155</v>
+      </c>
+      <c r="K27" s="24">
+        <v>155</v>
+      </c>
+      <c r="L27" s="24">
+        <v>155</v>
+      </c>
       <c r="M27" s="34"/>
       <c r="N27" s="25"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="64"/>
+      <c r="O27" s="59">
+        <v>155</v>
+      </c>
+      <c r="P27" s="64">
+        <v>155</v>
+      </c>
       <c r="Q27" s="39"/>
       <c r="R27" s="43"/>
     </row>
-    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
+    <row r="28" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="12">
+        <v>764888445</v>
+      </c>
+      <c r="D28" s="13">
+        <v>155</v>
+      </c>
+      <c r="E28" s="14">
+        <v>155</v>
+      </c>
+      <c r="F28" s="14">
+        <v>155</v>
+      </c>
+      <c r="G28" s="14">
+        <v>155</v>
+      </c>
+      <c r="H28" s="14">
+        <v>155</v>
+      </c>
+      <c r="I28" s="14">
+        <v>155</v>
+      </c>
+      <c r="J28" s="14">
+        <v>155</v>
+      </c>
+      <c r="K28" s="14">
+        <v>155</v>
+      </c>
+      <c r="L28" s="14">
+        <v>155</v>
+      </c>
       <c r="M28" s="44"/>
       <c r="N28" s="15"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="64"/>
+      <c r="O28" s="68">
+        <v>155</v>
+      </c>
+      <c r="P28" s="64">
+        <v>155</v>
+      </c>
       <c r="Q28" s="42"/>
       <c r="R28" s="42"/>
     </row>
-    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
+    <row r="29" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="9">
+        <v>755931135</v>
+      </c>
+      <c r="D29" s="23">
+        <v>155</v>
+      </c>
+      <c r="E29" s="24">
+        <v>155</v>
+      </c>
+      <c r="F29" s="24">
+        <v>155</v>
+      </c>
+      <c r="G29" s="24">
+        <v>155</v>
+      </c>
+      <c r="H29" s="24">
+        <v>155</v>
+      </c>
+      <c r="I29" s="24">
+        <v>155</v>
+      </c>
+      <c r="J29" s="24">
+        <v>155</v>
+      </c>
+      <c r="K29" s="24">
+        <v>155</v>
+      </c>
+      <c r="L29" s="24">
+        <v>155</v>
+      </c>
       <c r="M29" s="34"/>
       <c r="N29" s="25"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="64"/>
+      <c r="O29" s="59">
+        <v>155</v>
+      </c>
+      <c r="P29" s="64">
+        <v>155</v>
+      </c>
       <c r="Q29" s="39"/>
       <c r="R29" s="43"/>
     </row>
-    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="20"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
+    <row r="30" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="9">
+        <v>33782781442</v>
+      </c>
+      <c r="D30" s="23">
+        <v>155</v>
+      </c>
+      <c r="E30" s="24">
+        <v>155</v>
+      </c>
+      <c r="F30" s="24">
+        <v>155</v>
+      </c>
+      <c r="G30" s="24">
+        <v>155</v>
+      </c>
+      <c r="H30" s="24">
+        <v>155</v>
+      </c>
+      <c r="I30" s="24">
+        <v>155</v>
+      </c>
+      <c r="J30" s="24">
+        <v>155</v>
+      </c>
+      <c r="K30" s="24">
+        <v>155</v>
+      </c>
+      <c r="L30" s="24">
+        <v>155</v>
+      </c>
       <c r="M30" s="34"/>
       <c r="N30" s="25"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="64"/>
+      <c r="O30" s="59">
+        <v>155</v>
+      </c>
+      <c r="P30" s="64">
+        <v>155</v>
+      </c>
       <c r="Q30" s="39"/>
       <c r="R30" s="43"/>
     </row>
-    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
+    <row r="31" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="9">
+        <v>730913443</v>
+      </c>
+      <c r="D31" s="23">
+        <v>155</v>
+      </c>
+      <c r="E31" s="24">
+        <v>155</v>
+      </c>
+      <c r="F31" s="24">
+        <v>155</v>
+      </c>
+      <c r="G31" s="24">
+        <v>155</v>
+      </c>
+      <c r="H31" s="24">
+        <v>155</v>
+      </c>
+      <c r="I31" s="24">
+        <v>155</v>
+      </c>
+      <c r="J31" s="24">
+        <v>155</v>
+      </c>
+      <c r="K31" s="24">
+        <v>155</v>
+      </c>
+      <c r="L31" s="24">
+        <v>155</v>
+      </c>
       <c r="M31" s="34"/>
       <c r="N31" s="25"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="64"/>
+      <c r="O31" s="59">
+        <v>155</v>
+      </c>
+      <c r="P31" s="64">
+        <v>155</v>
+      </c>
       <c r="Q31" s="39"/>
       <c r="R31" s="43"/>
     </row>
-    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="8"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
+    <row r="32" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="9">
+        <v>751709016</v>
+      </c>
+      <c r="D32" s="23">
+        <v>155</v>
+      </c>
+      <c r="E32" s="24">
+        <v>155</v>
+      </c>
+      <c r="F32" s="24">
+        <v>155</v>
+      </c>
+      <c r="G32" s="24">
+        <v>155</v>
+      </c>
+      <c r="H32" s="24">
+        <v>155</v>
+      </c>
+      <c r="I32" s="24">
+        <v>155</v>
+      </c>
+      <c r="J32" s="24">
+        <v>155</v>
+      </c>
+      <c r="K32" s="24">
+        <v>155</v>
+      </c>
+      <c r="L32" s="24">
+        <v>155</v>
+      </c>
       <c r="M32" s="34"/>
       <c r="N32" s="25"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="64"/>
+      <c r="O32" s="59">
+        <v>155</v>
+      </c>
+      <c r="P32" s="64">
+        <v>155</v>
+      </c>
       <c r="Q32" s="39"/>
       <c r="R32" s="43"/>
     </row>
-    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="24"/>
+    <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="9">
+        <v>773787056</v>
+      </c>
+      <c r="D33" s="23">
+        <v>155</v>
+      </c>
+      <c r="E33" s="24">
+        <v>155</v>
+      </c>
+      <c r="F33" s="24">
+        <v>155</v>
+      </c>
+      <c r="G33" s="24">
+        <v>155</v>
+      </c>
+      <c r="H33" s="24">
+        <v>155</v>
+      </c>
+      <c r="I33" s="24">
+        <v>155</v>
+      </c>
+      <c r="J33" s="24">
+        <v>155</v>
+      </c>
+      <c r="K33" s="24">
+        <v>155</v>
+      </c>
+      <c r="L33" s="24">
+        <v>155</v>
+      </c>
+      <c r="M33" s="33">
+        <v>155</v>
+      </c>
+      <c r="N33" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="O33" s="59"/>
       <c r="P33" s="63"/>
       <c r="Q33" s="39"/>
       <c r="R33" s="43"/>
     </row>
-    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
+    <row r="34" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="9">
+        <v>749020388</v>
+      </c>
+      <c r="D34" s="23">
+        <v>155</v>
+      </c>
+      <c r="E34" s="24">
+        <v>155</v>
+      </c>
+      <c r="F34" s="24">
+        <v>155</v>
+      </c>
+      <c r="G34" s="24">
+        <v>155</v>
+      </c>
+      <c r="H34" s="24">
+        <v>155</v>
+      </c>
+      <c r="I34" s="24">
+        <v>155</v>
+      </c>
+      <c r="J34" s="24">
+        <v>155</v>
+      </c>
+      <c r="K34" s="24">
+        <v>155</v>
+      </c>
+      <c r="L34" s="24">
+        <v>155</v>
+      </c>
       <c r="M34" s="34"/>
       <c r="N34" s="25"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="64"/>
+      <c r="O34" s="59">
+        <v>155</v>
+      </c>
+      <c r="P34" s="64">
+        <v>155</v>
+      </c>
       <c r="Q34" s="39"/>
       <c r="R34" s="43"/>
     </row>
-    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="24"/>
+    <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="9">
+        <v>743229325</v>
+      </c>
+      <c r="D35" s="23">
+        <v>155</v>
+      </c>
+      <c r="E35" s="24">
+        <v>155</v>
+      </c>
+      <c r="F35" s="24">
+        <v>155</v>
+      </c>
+      <c r="G35" s="24">
+        <v>155</v>
+      </c>
+      <c r="H35" s="24">
+        <v>155</v>
+      </c>
+      <c r="I35" s="24">
+        <v>155</v>
+      </c>
+      <c r="J35" s="24">
+        <v>155</v>
+      </c>
+      <c r="K35" s="24">
+        <v>155</v>
+      </c>
+      <c r="L35" s="24">
+        <v>155</v>
+      </c>
+      <c r="M35" s="33">
+        <v>155</v>
+      </c>
+      <c r="N35" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="O35" s="59"/>
       <c r="P35" s="63"/>
       <c r="Q35" s="39"/>
       <c r="R35" s="43"/>
     </row>
-    <row r="36" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="8"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
+    <row r="36" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="9">
+        <v>724560970</v>
+      </c>
+      <c r="D36" s="23">
+        <v>155</v>
+      </c>
+      <c r="E36" s="24">
+        <v>155</v>
+      </c>
+      <c r="F36" s="24">
+        <v>155</v>
+      </c>
+      <c r="G36" s="24">
+        <v>155</v>
+      </c>
+      <c r="H36" s="24">
+        <v>155</v>
+      </c>
+      <c r="I36" s="24">
+        <v>155</v>
+      </c>
+      <c r="J36" s="24">
+        <v>155</v>
+      </c>
+      <c r="K36" s="24">
+        <v>155</v>
+      </c>
+      <c r="L36" s="24">
+        <v>155</v>
+      </c>
       <c r="M36" s="34"/>
       <c r="N36" s="25"/>
-      <c r="O36" s="59"/>
-      <c r="P36" s="64"/>
+      <c r="O36" s="59">
+        <v>155</v>
+      </c>
+      <c r="P36" s="64">
+        <v>155</v>
+      </c>
       <c r="Q36" s="39"/>
       <c r="R36" s="43"/>
     </row>
-    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
+    <row r="37" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="9">
+        <v>751343396</v>
+      </c>
+      <c r="D37" s="23">
+        <v>155</v>
+      </c>
+      <c r="E37" s="24">
+        <v>155</v>
+      </c>
+      <c r="F37" s="24">
+        <v>155</v>
+      </c>
+      <c r="G37" s="24">
+        <v>155</v>
+      </c>
+      <c r="H37" s="24">
+        <v>155</v>
+      </c>
+      <c r="I37" s="24">
+        <v>155</v>
+      </c>
+      <c r="J37" s="24">
+        <v>155</v>
+      </c>
+      <c r="K37" s="24">
+        <v>155</v>
+      </c>
+      <c r="L37" s="24">
+        <v>155</v>
+      </c>
       <c r="M37" s="34"/>
       <c r="N37" s="25"/>
-      <c r="O37" s="59"/>
-      <c r="P37" s="64"/>
+      <c r="O37" s="59">
+        <v>155</v>
+      </c>
+      <c r="P37" s="64">
+        <v>155</v>
+      </c>
       <c r="Q37" s="39"/>
       <c r="R37" s="43"/>
     </row>
-    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="8"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
+    <row r="38" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="9">
+        <v>747601279</v>
+      </c>
+      <c r="D38" s="23">
+        <v>155</v>
+      </c>
+      <c r="E38" s="24">
+        <v>155</v>
+      </c>
+      <c r="F38" s="24">
+        <v>155</v>
+      </c>
+      <c r="G38" s="24">
+        <v>155</v>
+      </c>
+      <c r="H38" s="24">
+        <v>155</v>
+      </c>
+      <c r="I38" s="24">
+        <v>155</v>
+      </c>
+      <c r="J38" s="24">
+        <v>155</v>
+      </c>
+      <c r="K38" s="24">
+        <v>155</v>
+      </c>
+      <c r="L38" s="24">
+        <v>155</v>
+      </c>
       <c r="M38" s="34"/>
       <c r="N38" s="25"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="64"/>
+      <c r="O38" s="59">
+        <v>155</v>
+      </c>
+      <c r="P38" s="64">
+        <v>155</v>
+      </c>
       <c r="Q38" s="39"/>
       <c r="R38" s="43"/>
     </row>
-    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
+    <row r="39" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="9">
+        <v>743241140</v>
+      </c>
+      <c r="D39" s="23">
+        <v>155</v>
+      </c>
+      <c r="E39" s="24">
+        <v>155</v>
+      </c>
+      <c r="F39" s="24">
+        <v>155</v>
+      </c>
+      <c r="G39" s="24">
+        <v>155</v>
+      </c>
+      <c r="H39" s="24">
+        <v>155</v>
+      </c>
+      <c r="I39" s="24">
+        <v>155</v>
+      </c>
+      <c r="J39" s="24">
+        <v>155</v>
+      </c>
+      <c r="K39" s="24">
+        <v>155</v>
+      </c>
+      <c r="L39" s="24">
+        <v>155</v>
+      </c>
       <c r="M39" s="34"/>
       <c r="N39" s="25"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="64"/>
+      <c r="O39" s="59">
+        <v>155</v>
+      </c>
+      <c r="P39" s="64">
+        <v>155</v>
+      </c>
       <c r="Q39" s="39"/>
       <c r="R39" s="43"/>
     </row>
-    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="8"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
+    <row r="40" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="9">
+        <v>732009826</v>
+      </c>
+      <c r="D40" s="23">
+        <v>155</v>
+      </c>
+      <c r="E40" s="24">
+        <v>155</v>
+      </c>
+      <c r="F40" s="24">
+        <v>155</v>
+      </c>
+      <c r="G40" s="24">
+        <v>155</v>
+      </c>
+      <c r="H40" s="24">
+        <v>155</v>
+      </c>
+      <c r="I40" s="24">
+        <v>155</v>
+      </c>
+      <c r="J40" s="24">
+        <v>155</v>
+      </c>
+      <c r="K40" s="24">
+        <v>155</v>
+      </c>
+      <c r="L40" s="24">
+        <v>155</v>
+      </c>
       <c r="M40" s="34"/>
       <c r="N40" s="25"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="64"/>
+      <c r="O40" s="59">
+        <v>155</v>
+      </c>
+      <c r="P40" s="64">
+        <v>155</v>
+      </c>
       <c r="Q40" s="39"/>
       <c r="R40" s="43"/>
     </row>
-    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="24"/>
+    <row r="41" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="9">
+        <v>730504732</v>
+      </c>
+      <c r="D41" s="23">
+        <v>155</v>
+      </c>
+      <c r="E41" s="24">
+        <v>155</v>
+      </c>
+      <c r="F41" s="24">
+        <v>155</v>
+      </c>
+      <c r="G41" s="24">
+        <v>155</v>
+      </c>
+      <c r="H41" s="24">
+        <v>155</v>
+      </c>
+      <c r="I41" s="24">
+        <v>155</v>
+      </c>
+      <c r="J41" s="24">
+        <v>155</v>
+      </c>
+      <c r="K41" s="24">
+        <v>155</v>
+      </c>
+      <c r="L41" s="24">
+        <v>155</v>
+      </c>
+      <c r="M41" s="33">
+        <v>155</v>
+      </c>
+      <c r="N41" s="24">
+        <v>155</v>
+      </c>
       <c r="O41" s="59"/>
       <c r="P41" s="63"/>
       <c r="Q41" s="39"/>
       <c r="R41" s="43"/>
     </row>
-    <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="8"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-      <c r="K42" s="24"/>
-      <c r="L42" s="24"/>
+    <row r="42" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="9">
+        <v>771756831</v>
+      </c>
+      <c r="D42" s="23">
+        <v>155</v>
+      </c>
+      <c r="E42" s="24">
+        <v>155</v>
+      </c>
+      <c r="F42" s="24">
+        <v>155</v>
+      </c>
+      <c r="G42" s="24">
+        <v>155</v>
+      </c>
+      <c r="H42" s="24">
+        <v>155</v>
+      </c>
+      <c r="I42" s="24">
+        <v>155</v>
+      </c>
+      <c r="J42" s="24">
+        <v>155</v>
+      </c>
+      <c r="K42" s="24">
+        <v>155</v>
+      </c>
+      <c r="L42" s="24">
+        <v>155</v>
+      </c>
       <c r="M42" s="34"/>
       <c r="N42" s="25"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="64"/>
+      <c r="O42" s="59">
+        <v>155</v>
+      </c>
+      <c r="P42" s="64">
+        <v>155</v>
+      </c>
       <c r="Q42" s="39"/>
       <c r="R42" s="43"/>
     </row>
-    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="8"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
+    <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="9">
+        <v>748883235</v>
+      </c>
+      <c r="D43" s="23">
+        <v>155</v>
+      </c>
+      <c r="E43" s="24">
+        <v>155</v>
+      </c>
+      <c r="F43" s="24">
+        <v>155</v>
+      </c>
+      <c r="G43" s="24">
+        <v>155</v>
+      </c>
+      <c r="H43" s="24">
+        <v>155</v>
+      </c>
+      <c r="I43" s="24">
+        <v>155</v>
+      </c>
+      <c r="J43" s="24">
+        <v>155</v>
+      </c>
+      <c r="K43" s="24">
+        <v>155</v>
+      </c>
+      <c r="L43" s="24">
+        <v>155</v>
+      </c>
       <c r="M43" s="34"/>
       <c r="N43" s="25"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="64"/>
+      <c r="O43" s="59">
+        <v>155</v>
+      </c>
+      <c r="P43" s="64">
+        <v>155</v>
+      </c>
       <c r="Q43" s="39"/>
       <c r="R43" s="43"/>
     </row>
-    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="8"/>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
+    <row r="44" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="9">
+        <v>771143821</v>
+      </c>
+      <c r="D44" s="23">
+        <v>80</v>
+      </c>
+      <c r="E44" s="24">
+        <v>80</v>
+      </c>
+      <c r="F44" s="24">
+        <v>80</v>
+      </c>
+      <c r="G44" s="24">
+        <v>80</v>
+      </c>
+      <c r="H44" s="24">
+        <v>80</v>
+      </c>
+      <c r="I44" s="24">
+        <v>80</v>
+      </c>
       <c r="J44" s="25"/>
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
       <c r="M44" s="34"/>
       <c r="N44" s="25"/>
-      <c r="O44" s="59"/>
-      <c r="P44" s="64"/>
+      <c r="O44" s="59">
+        <v>80</v>
+      </c>
+      <c r="P44" s="64">
+        <v>80</v>
+      </c>
       <c r="Q44" s="39"/>
       <c r="R44" s="43"/>
     </row>
-    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="8"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="23"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="24"/>
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="9">
+        <v>742201134</v>
+      </c>
+      <c r="D45" s="23">
+        <v>155</v>
+      </c>
+      <c r="E45" s="24">
+        <v>155</v>
+      </c>
+      <c r="F45" s="24">
+        <v>155</v>
+      </c>
+      <c r="G45" s="24">
+        <v>155</v>
+      </c>
+      <c r="H45" s="24">
+        <v>155</v>
+      </c>
+      <c r="I45" s="24">
+        <v>155</v>
+      </c>
+      <c r="J45" s="24">
+        <v>155</v>
+      </c>
+      <c r="K45" s="24">
+        <v>155</v>
+      </c>
+      <c r="L45" s="24">
+        <v>155</v>
+      </c>
+      <c r="M45" s="33">
+        <v>155</v>
+      </c>
+      <c r="N45" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="O45" s="59"/>
       <c r="P45" s="63"/>
       <c r="Q45" s="39"/>
       <c r="R45" s="43"/>
     </row>
-    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="8"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="23"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
+    <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="9">
+        <v>731453375</v>
+      </c>
+      <c r="D46" s="23">
+        <v>155</v>
+      </c>
+      <c r="E46" s="24">
+        <v>155</v>
+      </c>
+      <c r="F46" s="24">
+        <v>155</v>
+      </c>
+      <c r="G46" s="24">
+        <v>155</v>
+      </c>
+      <c r="H46" s="24">
+        <v>155</v>
+      </c>
+      <c r="I46" s="24">
+        <v>155</v>
+      </c>
+      <c r="J46" s="24">
+        <v>155</v>
+      </c>
+      <c r="K46" s="24">
+        <v>155</v>
+      </c>
+      <c r="L46" s="24">
+        <v>155</v>
+      </c>
       <c r="M46" s="34"/>
       <c r="N46" s="25"/>
-      <c r="O46" s="59"/>
-      <c r="P46" s="64"/>
+      <c r="O46" s="59">
+        <v>155</v>
+      </c>
+      <c r="P46" s="64">
+        <v>155</v>
+      </c>
       <c r="Q46" s="39"/>
       <c r="R46" s="43"/>
     </row>
-    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="8"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="9">
+        <v>41793609481</v>
+      </c>
+      <c r="D47" s="23">
+        <v>155</v>
+      </c>
+      <c r="E47" s="24">
+        <v>155</v>
+      </c>
+      <c r="F47" s="24">
+        <v>155</v>
+      </c>
+      <c r="G47" s="24">
+        <v>155</v>
+      </c>
+      <c r="H47" s="24">
+        <v>155</v>
+      </c>
+      <c r="I47" s="24">
+        <v>155</v>
+      </c>
+      <c r="J47" s="24">
+        <v>155</v>
+      </c>
+      <c r="K47" s="24">
+        <v>155</v>
+      </c>
+      <c r="L47" s="24">
+        <v>155</v>
+      </c>
       <c r="M47" s="34"/>
       <c r="N47" s="25"/>
-      <c r="O47" s="59"/>
-      <c r="P47" s="64"/>
+      <c r="O47" s="59">
+        <v>155</v>
+      </c>
+      <c r="P47" s="64">
+        <v>155</v>
+      </c>
       <c r="Q47" s="39"/>
       <c r="R47" s="43"/>
     </row>
-    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="8"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
+    <row r="48" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="9">
+        <v>34666220586</v>
+      </c>
       <c r="D48" s="29"/>
       <c r="E48" s="25"/>
       <c r="F48" s="25"/>
@@ -1996,74 +3683,170 @@
       <c r="O48" s="58"/>
       <c r="P48" s="64"/>
       <c r="Q48" s="39"/>
-      <c r="R48" s="26"/>
-    </row>
-    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="8"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
+      <c r="R48" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="9">
+        <v>723385958</v>
+      </c>
+      <c r="D49" s="23">
+        <v>155</v>
+      </c>
+      <c r="E49" s="24">
+        <v>155</v>
+      </c>
+      <c r="F49" s="24">
+        <v>155</v>
+      </c>
+      <c r="G49" s="24">
+        <v>155</v>
+      </c>
+      <c r="H49" s="24">
+        <v>155</v>
+      </c>
+      <c r="I49" s="24">
+        <v>155</v>
+      </c>
+      <c r="J49" s="24">
+        <v>155</v>
+      </c>
+      <c r="K49" s="24">
+        <v>155</v>
+      </c>
+      <c r="L49" s="24">
+        <v>155</v>
+      </c>
       <c r="M49" s="34"/>
       <c r="N49" s="25"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="64"/>
+      <c r="O49" s="59">
+        <v>155</v>
+      </c>
+      <c r="P49" s="64">
+        <v>155</v>
+      </c>
       <c r="Q49" s="39"/>
       <c r="R49" s="43"/>
     </row>
-    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="8"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="24"/>
+    <row r="50" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A50" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="9">
+        <v>744112116</v>
+      </c>
+      <c r="D50" s="23">
+        <v>155</v>
+      </c>
+      <c r="E50" s="24">
+        <v>155</v>
+      </c>
+      <c r="F50" s="24">
+        <v>155</v>
+      </c>
+      <c r="G50" s="24">
+        <v>155</v>
+      </c>
+      <c r="H50" s="24">
+        <v>155</v>
+      </c>
+      <c r="I50" s="24">
+        <v>155</v>
+      </c>
+      <c r="J50" s="24">
+        <v>155</v>
+      </c>
+      <c r="K50" s="24">
+        <v>155</v>
+      </c>
+      <c r="L50" s="24">
+        <v>155</v>
+      </c>
+      <c r="M50" s="33">
+        <v>155</v>
+      </c>
+      <c r="N50" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="O50" s="59"/>
       <c r="P50" s="63"/>
       <c r="Q50" s="39"/>
       <c r="R50" s="43"/>
     </row>
-    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="8"/>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="24"/>
+    <row r="51" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="9">
+        <v>720049170</v>
+      </c>
+      <c r="D51" s="23">
+        <v>155</v>
+      </c>
+      <c r="E51" s="24">
+        <v>155</v>
+      </c>
+      <c r="F51" s="24">
+        <v>155</v>
+      </c>
+      <c r="G51" s="24">
+        <v>155</v>
+      </c>
+      <c r="H51" s="24">
+        <v>155</v>
+      </c>
+      <c r="I51" s="24">
+        <v>155</v>
+      </c>
+      <c r="J51" s="24">
+        <v>155</v>
+      </c>
+      <c r="K51" s="24">
+        <v>155</v>
+      </c>
+      <c r="L51" s="24">
+        <v>155</v>
+      </c>
+      <c r="M51" s="33">
+        <v>155</v>
+      </c>
+      <c r="N51" s="24">
+        <v>155</v>
+      </c>
       <c r="O51" s="59"/>
       <c r="P51" s="63"/>
       <c r="Q51" s="39"/>
       <c r="R51" s="43"/>
     </row>
-    <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="8"/>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="24"/>
+    <row r="52" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A52" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="9">
+        <v>410779995351</v>
+      </c>
+      <c r="D52" s="23">
+        <v>155</v>
+      </c>
+      <c r="E52" s="24">
+        <v>155</v>
+      </c>
       <c r="F52" s="25"/>
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
@@ -2073,78 +3856,178 @@
       <c r="L52" s="25"/>
       <c r="M52" s="34"/>
       <c r="N52" s="25"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="64"/>
+      <c r="O52" s="59">
+        <v>155</v>
+      </c>
+      <c r="P52" s="64">
+        <v>155</v>
+      </c>
       <c r="Q52" s="39"/>
       <c r="R52" s="43"/>
     </row>
-    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="28"/>
-      <c r="L53" s="28"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="28"/>
+    <row r="53" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="19">
+        <v>7796402501</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="H53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="I53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="J53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="K53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="L53" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="M53" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="N53" s="28" t="s">
+        <v>168</v>
+      </c>
       <c r="O53" s="60"/>
       <c r="P53" s="63"/>
       <c r="Q53" s="39"/>
       <c r="R53" s="43"/>
     </row>
-    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="8"/>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="33"/>
+    <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="9">
+        <v>757678280</v>
+      </c>
+      <c r="D54" s="23">
+        <v>155</v>
+      </c>
+      <c r="E54" s="24">
+        <v>155</v>
+      </c>
+      <c r="F54" s="24">
+        <v>155</v>
+      </c>
+      <c r="G54" s="24">
+        <v>155</v>
+      </c>
+      <c r="H54" s="24">
+        <v>155</v>
+      </c>
+      <c r="I54" s="24">
+        <v>155</v>
+      </c>
+      <c r="J54" s="24">
+        <v>155</v>
+      </c>
+      <c r="K54" s="24">
+        <v>155</v>
+      </c>
+      <c r="L54" s="24">
+        <v>155</v>
+      </c>
+      <c r="M54" s="33">
+        <v>155</v>
+      </c>
       <c r="N54" s="25"/>
-      <c r="O54" s="59"/>
+      <c r="O54" s="59">
+        <v>155</v>
+      </c>
       <c r="P54" s="64"/>
       <c r="Q54" s="39"/>
       <c r="R54" s="43"/>
     </row>
-    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="8"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="24"/>
-      <c r="J55" s="24"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="24"/>
+    <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="9">
+        <v>744705023</v>
+      </c>
+      <c r="D55" s="23">
+        <v>155</v>
+      </c>
+      <c r="E55" s="24">
+        <v>155</v>
+      </c>
+      <c r="F55" s="24">
+        <v>155</v>
+      </c>
+      <c r="G55" s="24">
+        <v>155</v>
+      </c>
+      <c r="H55" s="24">
+        <v>155</v>
+      </c>
+      <c r="I55" s="24">
+        <v>155</v>
+      </c>
+      <c r="J55" s="24">
+        <v>155</v>
+      </c>
+      <c r="K55" s="24">
+        <v>155</v>
+      </c>
+      <c r="L55" s="24">
+        <v>155</v>
+      </c>
       <c r="M55" s="34"/>
       <c r="N55" s="25"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="64"/>
+      <c r="O55" s="59">
+        <v>155</v>
+      </c>
+      <c r="P55" s="64">
+        <v>155</v>
+      </c>
       <c r="Q55" s="39"/>
       <c r="R55" s="70"/>
     </row>
-    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="20"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
+    <row r="56" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="9">
+        <v>724385533</v>
+      </c>
+      <c r="D56" s="23">
+        <v>155</v>
+      </c>
+      <c r="E56" s="24">
+        <v>155</v>
+      </c>
+      <c r="F56" s="24">
+        <v>155</v>
+      </c>
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
@@ -2155,13 +4038,23 @@
       <c r="N56" s="25"/>
       <c r="O56" s="59"/>
       <c r="P56" s="64"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="73"/>
-    </row>
-    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="8"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
+      <c r="Q56" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="R56" s="73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C57" s="9">
+        <v>722283194</v>
+      </c>
       <c r="D57" s="29"/>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
@@ -2176,54 +4069,114 @@
       <c r="O57" s="58"/>
       <c r="P57" s="64"/>
       <c r="Q57" s="39"/>
-      <c r="R57" s="74"/>
-    </row>
-    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="20"/>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="30"/>
+      <c r="R57" s="74" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C58" s="9">
+        <v>742083396</v>
+      </c>
+      <c r="D58" s="23">
+        <v>155</v>
+      </c>
+      <c r="E58" s="24">
+        <v>155</v>
+      </c>
+      <c r="F58" s="24">
+        <v>155</v>
+      </c>
+      <c r="G58" s="24">
+        <v>155</v>
+      </c>
+      <c r="H58" s="30">
+        <v>130</v>
+      </c>
       <c r="I58" s="25"/>
       <c r="J58" s="25"/>
       <c r="K58" s="25"/>
       <c r="L58" s="25"/>
       <c r="M58" s="34"/>
       <c r="N58" s="25"/>
-      <c r="O58" s="59"/>
-      <c r="P58" s="64"/>
+      <c r="O58" s="59">
+        <v>155</v>
+      </c>
+      <c r="P58" s="64">
+        <v>155</v>
+      </c>
       <c r="Q58" s="39"/>
       <c r="R58" s="72"/>
     </row>
-    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="8"/>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="24"/>
+    <row r="59" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" s="9">
+        <v>751700208</v>
+      </c>
+      <c r="D59" s="23">
+        <v>155</v>
+      </c>
+      <c r="E59" s="24">
+        <v>155</v>
+      </c>
+      <c r="F59" s="24">
+        <v>155</v>
+      </c>
+      <c r="G59" s="24">
+        <v>155</v>
+      </c>
+      <c r="H59" s="24">
+        <v>155</v>
+      </c>
+      <c r="I59" s="24">
+        <v>155</v>
+      </c>
+      <c r="J59" s="24">
+        <v>155</v>
+      </c>
+      <c r="K59" s="24">
+        <v>155</v>
+      </c>
+      <c r="L59" s="24">
+        <v>155</v>
+      </c>
       <c r="M59" s="34"/>
       <c r="N59" s="25"/>
-      <c r="O59" s="59"/>
-      <c r="P59" s="64"/>
+      <c r="O59" s="59">
+        <v>155</v>
+      </c>
+      <c r="P59" s="64">
+        <v>155</v>
+      </c>
       <c r="Q59" s="39"/>
       <c r="R59" s="57"/>
     </row>
-    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="8"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="24"/>
+    <row r="60" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A60" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="C60" s="9">
+        <v>740759994</v>
+      </c>
+      <c r="D60" s="23">
+        <v>155</v>
+      </c>
+      <c r="E60" s="24">
+        <v>155</v>
+      </c>
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
@@ -2233,15 +4186,25 @@
       <c r="L60" s="25"/>
       <c r="M60" s="34"/>
       <c r="N60" s="25"/>
-      <c r="O60" s="59"/>
-      <c r="P60" s="64"/>
+      <c r="O60" s="59">
+        <v>155</v>
+      </c>
+      <c r="P60" s="64">
+        <v>155</v>
+      </c>
       <c r="Q60" s="39"/>
       <c r="R60" s="57"/>
     </row>
-    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="21"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
+    <row r="61" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C61" s="10">
+        <v>723191854</v>
+      </c>
       <c r="D61" s="29"/>
       <c r="E61" s="25"/>
       <c r="F61" s="25"/>
@@ -2255,53 +4218,119 @@
       <c r="N61" s="25"/>
       <c r="O61" s="58"/>
       <c r="P61" s="65"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="73"/>
-    </row>
-    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="20"/>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="24"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="33"/>
+      <c r="Q61" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="R61" s="73" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="9">
+        <v>726489020</v>
+      </c>
+      <c r="D62" s="23">
+        <v>155</v>
+      </c>
+      <c r="E62" s="24">
+        <v>155</v>
+      </c>
+      <c r="F62" s="24">
+        <v>155</v>
+      </c>
+      <c r="G62" s="24">
+        <v>155</v>
+      </c>
+      <c r="H62" s="24">
+        <v>155</v>
+      </c>
+      <c r="I62" s="24">
+        <v>155</v>
+      </c>
+      <c r="J62" s="24">
+        <v>155</v>
+      </c>
+      <c r="K62" s="24">
+        <v>155</v>
+      </c>
+      <c r="L62" s="24">
+        <v>155</v>
+      </c>
+      <c r="M62" s="33">
+        <v>155</v>
+      </c>
       <c r="N62" s="25"/>
-      <c r="O62" s="59"/>
+      <c r="O62" s="59">
+        <v>155</v>
+      </c>
       <c r="P62" s="63"/>
       <c r="Q62" s="39"/>
       <c r="R62" s="57"/>
     </row>
-    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="8"/>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="24"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="24"/>
+    <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A63" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="9">
+        <v>745525405</v>
+      </c>
+      <c r="D63" s="23">
+        <v>155</v>
+      </c>
+      <c r="E63" s="24">
+        <v>155</v>
+      </c>
+      <c r="F63" s="24">
+        <v>155</v>
+      </c>
+      <c r="G63" s="24">
+        <v>155</v>
+      </c>
+      <c r="H63" s="24">
+        <v>155</v>
+      </c>
+      <c r="I63" s="24">
+        <v>155</v>
+      </c>
+      <c r="J63" s="24">
+        <v>155</v>
+      </c>
+      <c r="K63" s="24">
+        <v>155</v>
+      </c>
+      <c r="L63" s="24">
+        <v>155</v>
+      </c>
       <c r="M63" s="34"/>
       <c r="N63" s="25"/>
-      <c r="O63" s="59"/>
-      <c r="P63" s="64"/>
+      <c r="O63" s="59">
+        <v>155</v>
+      </c>
+      <c r="P63" s="64">
+        <v>155</v>
+      </c>
       <c r="Q63" s="39"/>
       <c r="R63" s="57"/>
     </row>
-    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="8"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
+    <row r="64" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A64" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" s="9">
+        <v>720878686</v>
+      </c>
       <c r="D64" s="29"/>
       <c r="E64" s="25"/>
       <c r="F64" s="25"/>
@@ -2315,277 +4344,649 @@
       <c r="N64" s="25"/>
       <c r="O64" s="58"/>
       <c r="P64" s="64"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="75"/>
-    </row>
-    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="8"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="24"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="24"/>
-      <c r="M65" s="33"/>
+      <c r="Q64" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="R64" s="75" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="C65" s="9">
+        <v>740074538</v>
+      </c>
+      <c r="D65" s="23">
+        <v>155</v>
+      </c>
+      <c r="E65" s="24">
+        <v>155</v>
+      </c>
+      <c r="F65" s="24">
+        <v>155</v>
+      </c>
+      <c r="G65" s="24">
+        <v>155</v>
+      </c>
+      <c r="H65" s="24">
+        <v>155</v>
+      </c>
+      <c r="I65" s="24">
+        <v>155</v>
+      </c>
+      <c r="J65" s="24">
+        <v>155</v>
+      </c>
+      <c r="K65" s="24">
+        <v>155</v>
+      </c>
+      <c r="L65" s="24">
+        <v>155</v>
+      </c>
+      <c r="M65" s="33">
+        <v>155</v>
+      </c>
       <c r="N65" s="25"/>
-      <c r="O65" s="59"/>
+      <c r="O65" s="59">
+        <v>155</v>
+      </c>
       <c r="P65" s="63"/>
       <c r="Q65" s="39"/>
       <c r="R65" s="57"/>
     </row>
-    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="20"/>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="24"/>
-      <c r="F66" s="24"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="I66" s="24"/>
-      <c r="J66" s="24"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="24"/>
+    <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="9">
+        <v>31687728451</v>
+      </c>
+      <c r="D66" s="23">
+        <v>55</v>
+      </c>
+      <c r="E66" s="24">
+        <v>55</v>
+      </c>
+      <c r="F66" s="24">
+        <v>55</v>
+      </c>
+      <c r="G66" s="24">
+        <v>55</v>
+      </c>
+      <c r="H66" s="24">
+        <v>55</v>
+      </c>
+      <c r="I66" s="24">
+        <v>55</v>
+      </c>
+      <c r="J66" s="24">
+        <v>55</v>
+      </c>
+      <c r="K66" s="24">
+        <v>55</v>
+      </c>
+      <c r="L66" s="24">
+        <v>55</v>
+      </c>
       <c r="M66" s="34"/>
       <c r="N66" s="25"/>
-      <c r="O66" s="59"/>
-      <c r="P66" s="64"/>
+      <c r="O66" s="59">
+        <v>55</v>
+      </c>
+      <c r="P66" s="64">
+        <v>55</v>
+      </c>
       <c r="Q66" s="39"/>
       <c r="R66" s="71"/>
     </row>
-    <row r="67" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="8"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="24"/>
-      <c r="F67" s="24"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="I67" s="24"/>
-      <c r="J67" s="24"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="24"/>
+    <row r="67" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" s="9">
+        <v>373069265735</v>
+      </c>
+      <c r="D67" s="23">
+        <v>55</v>
+      </c>
+      <c r="E67" s="24">
+        <v>55</v>
+      </c>
+      <c r="F67" s="24">
+        <v>55</v>
+      </c>
+      <c r="G67" s="24">
+        <v>55</v>
+      </c>
+      <c r="H67" s="24">
+        <v>55</v>
+      </c>
+      <c r="I67" s="24">
+        <v>55</v>
+      </c>
+      <c r="J67" s="24">
+        <v>55</v>
+      </c>
+      <c r="K67" s="24">
+        <v>55</v>
+      </c>
+      <c r="L67" s="24">
+        <v>55</v>
+      </c>
       <c r="M67" s="34"/>
       <c r="N67" s="25"/>
-      <c r="O67" s="59"/>
-      <c r="P67" s="64"/>
+      <c r="O67" s="59">
+        <v>55</v>
+      </c>
+      <c r="P67" s="64">
+        <v>55</v>
+      </c>
       <c r="Q67" s="39"/>
       <c r="R67" s="43"/>
     </row>
-    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="8"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="24"/>
-      <c r="F68" s="24"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="24"/>
-      <c r="J68" s="24"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="33"/>
-      <c r="N68" s="24"/>
+    <row r="68" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A68" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C68" s="9">
+        <v>740186024</v>
+      </c>
+      <c r="D68" s="23">
+        <v>155</v>
+      </c>
+      <c r="E68" s="24">
+        <v>155</v>
+      </c>
+      <c r="F68" s="24">
+        <v>155</v>
+      </c>
+      <c r="G68" s="24">
+        <v>155</v>
+      </c>
+      <c r="H68" s="24">
+        <v>155</v>
+      </c>
+      <c r="I68" s="24">
+        <v>155</v>
+      </c>
+      <c r="J68" s="24">
+        <v>155</v>
+      </c>
+      <c r="K68" s="24">
+        <v>155</v>
+      </c>
+      <c r="L68" s="24">
+        <v>155</v>
+      </c>
+      <c r="M68" s="33">
+        <v>155</v>
+      </c>
+      <c r="N68" s="24">
+        <v>155</v>
+      </c>
       <c r="O68" s="59"/>
       <c r="P68" s="63"/>
       <c r="Q68" s="39"/>
       <c r="R68" s="43"/>
     </row>
-    <row r="69" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="8"/>
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="24"/>
-      <c r="F69" s="24"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="I69" s="24"/>
-      <c r="J69" s="24"/>
-      <c r="K69" s="24"/>
-      <c r="L69" s="24"/>
-      <c r="M69" s="33"/>
-      <c r="N69" s="24"/>
+    <row r="69" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A69" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C69" s="9">
+        <v>37379706120</v>
+      </c>
+      <c r="D69" s="23">
+        <v>55</v>
+      </c>
+      <c r="E69" s="24">
+        <v>55</v>
+      </c>
+      <c r="F69" s="24">
+        <v>55</v>
+      </c>
+      <c r="G69" s="24">
+        <v>55</v>
+      </c>
+      <c r="H69" s="24">
+        <v>55</v>
+      </c>
+      <c r="I69" s="24">
+        <v>55</v>
+      </c>
+      <c r="J69" s="24">
+        <v>55</v>
+      </c>
+      <c r="K69" s="24">
+        <v>55</v>
+      </c>
+      <c r="L69" s="24">
+        <v>55</v>
+      </c>
+      <c r="M69" s="33">
+        <v>55</v>
+      </c>
+      <c r="N69" s="24">
+        <v>55</v>
+      </c>
       <c r="O69" s="59"/>
       <c r="P69" s="63"/>
       <c r="Q69" s="39"/>
       <c r="R69" s="43"/>
     </row>
-    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="8"/>
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="24"/>
-      <c r="F70" s="24"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="24"/>
-      <c r="I70" s="24"/>
-      <c r="J70" s="24"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="33"/>
-      <c r="N70" s="24"/>
+    <row r="70" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A70" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C70" s="9">
+        <v>37361183234</v>
+      </c>
+      <c r="D70" s="23">
+        <v>55</v>
+      </c>
+      <c r="E70" s="24">
+        <v>55</v>
+      </c>
+      <c r="F70" s="24">
+        <v>55</v>
+      </c>
+      <c r="G70" s="24">
+        <v>55</v>
+      </c>
+      <c r="H70" s="24">
+        <v>55</v>
+      </c>
+      <c r="I70" s="24">
+        <v>55</v>
+      </c>
+      <c r="J70" s="24">
+        <v>55</v>
+      </c>
+      <c r="K70" s="24">
+        <v>55</v>
+      </c>
+      <c r="L70" s="24">
+        <v>55</v>
+      </c>
+      <c r="M70" s="33">
+        <v>55</v>
+      </c>
+      <c r="N70" s="24">
+        <v>55</v>
+      </c>
       <c r="O70" s="59"/>
       <c r="P70" s="63"/>
       <c r="Q70" s="39"/>
       <c r="R70" s="43"/>
     </row>
-    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="8"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="24"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
+    <row r="71" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="9">
+        <v>37369815388</v>
+      </c>
+      <c r="D71" s="23">
+        <v>55</v>
+      </c>
+      <c r="E71" s="24">
+        <v>55</v>
+      </c>
+      <c r="F71" s="24">
+        <v>55</v>
+      </c>
+      <c r="G71" s="24">
+        <v>55</v>
+      </c>
+      <c r="H71" s="24">
+        <v>55</v>
+      </c>
+      <c r="I71" s="24">
+        <v>55</v>
+      </c>
+      <c r="J71" s="24">
+        <v>55</v>
+      </c>
+      <c r="K71" s="24">
+        <v>55</v>
+      </c>
+      <c r="L71" s="24">
+        <v>55</v>
+      </c>
       <c r="M71" s="34"/>
       <c r="N71" s="25"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="64"/>
+      <c r="O71" s="59">
+        <v>55</v>
+      </c>
+      <c r="P71" s="64">
+        <v>55</v>
+      </c>
       <c r="Q71" s="39"/>
       <c r="R71" s="43"/>
     </row>
-    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="8"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="24"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="24"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="24"/>
+    <row r="72" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="9">
+        <v>358406402278</v>
+      </c>
+      <c r="D72" s="23">
+        <v>155</v>
+      </c>
+      <c r="E72" s="24">
+        <v>155</v>
+      </c>
+      <c r="F72" s="24">
+        <v>155</v>
+      </c>
+      <c r="G72" s="24">
+        <v>155</v>
+      </c>
+      <c r="H72" s="24">
+        <v>155</v>
+      </c>
+      <c r="I72" s="24">
+        <v>155</v>
+      </c>
+      <c r="J72" s="24">
+        <v>155</v>
+      </c>
+      <c r="K72" s="24">
+        <v>155</v>
+      </c>
+      <c r="L72" s="24">
+        <v>155</v>
+      </c>
+      <c r="M72" s="33">
+        <v>155</v>
+      </c>
+      <c r="N72" s="24" t="s">
+        <v>168</v>
+      </c>
       <c r="O72" s="59"/>
       <c r="P72" s="63"/>
       <c r="Q72" s="39"/>
       <c r="R72" s="43"/>
     </row>
-    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="8"/>
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="24"/>
+    <row r="73" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A73" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="9">
+        <v>786602562</v>
+      </c>
+      <c r="D73" s="23">
+        <v>155</v>
+      </c>
+      <c r="E73" s="24">
+        <v>155</v>
+      </c>
       <c r="F73" s="26"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="24"/>
+      <c r="G73" s="24">
+        <v>155</v>
+      </c>
+      <c r="H73" s="24">
+        <v>155</v>
+      </c>
       <c r="I73" s="26"/>
       <c r="J73" s="26"/>
       <c r="K73" s="26"/>
-      <c r="L73" s="24"/>
+      <c r="L73" s="24">
+        <v>155</v>
+      </c>
       <c r="M73" s="34"/>
       <c r="N73" s="25"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="64"/>
+      <c r="O73" s="59">
+        <v>155</v>
+      </c>
+      <c r="P73" s="64">
+        <v>155</v>
+      </c>
       <c r="Q73" s="39"/>
       <c r="R73" s="43"/>
     </row>
-    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="8"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="24"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="24"/>
-      <c r="J74" s="24"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="24"/>
-      <c r="M74" s="33"/>
+    <row r="74" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A74" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="9">
+        <v>37379117788</v>
+      </c>
+      <c r="D74" s="23">
+        <v>55</v>
+      </c>
+      <c r="E74" s="24">
+        <v>55</v>
+      </c>
+      <c r="F74" s="24">
+        <v>55</v>
+      </c>
+      <c r="G74" s="24">
+        <v>55</v>
+      </c>
+      <c r="H74" s="24">
+        <v>55</v>
+      </c>
+      <c r="I74" s="24">
+        <v>55</v>
+      </c>
+      <c r="J74" s="24">
+        <v>55</v>
+      </c>
+      <c r="K74" s="24">
+        <v>55</v>
+      </c>
+      <c r="L74" s="24">
+        <v>55</v>
+      </c>
+      <c r="M74" s="33">
+        <v>55</v>
+      </c>
       <c r="N74" s="25"/>
-      <c r="O74" s="59"/>
+      <c r="O74" s="59">
+        <v>55</v>
+      </c>
       <c r="P74" s="63"/>
       <c r="Q74" s="39"/>
       <c r="R74" s="43"/>
     </row>
-    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="8"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="24"/>
-      <c r="F75" s="24"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="24"/>
-      <c r="I75" s="24"/>
-      <c r="J75" s="24"/>
-      <c r="K75" s="24"/>
+    <row r="75" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A75" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="9">
+        <v>741228820</v>
+      </c>
+      <c r="D75" s="23">
+        <v>155</v>
+      </c>
+      <c r="E75" s="24">
+        <v>155</v>
+      </c>
+      <c r="F75" s="24">
+        <v>155</v>
+      </c>
+      <c r="G75" s="24">
+        <v>155</v>
+      </c>
+      <c r="H75" s="24">
+        <v>155</v>
+      </c>
+      <c r="I75" s="24">
+        <v>155</v>
+      </c>
+      <c r="J75" s="24">
+        <v>155</v>
+      </c>
+      <c r="K75" s="24">
+        <v>155</v>
+      </c>
       <c r="L75" s="25"/>
       <c r="M75" s="34"/>
       <c r="N75" s="25"/>
-      <c r="O75" s="59"/>
-      <c r="P75" s="64"/>
+      <c r="O75" s="59">
+        <v>155</v>
+      </c>
+      <c r="P75" s="64">
+        <v>155</v>
+      </c>
       <c r="Q75" s="39"/>
       <c r="R75" s="43"/>
     </row>
-    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="8"/>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="24"/>
-      <c r="F76" s="24"/>
-      <c r="G76" s="24"/>
-      <c r="H76" s="24"/>
-      <c r="I76" s="24"/>
-      <c r="J76" s="24"/>
-      <c r="K76" s="24"/>
-      <c r="L76" s="24"/>
+    <row r="76" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A76" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="C76" s="9">
+        <v>741178279</v>
+      </c>
+      <c r="D76" s="23">
+        <v>155</v>
+      </c>
+      <c r="E76" s="24">
+        <v>155</v>
+      </c>
+      <c r="F76" s="24">
+        <v>155</v>
+      </c>
+      <c r="G76" s="24">
+        <v>155</v>
+      </c>
+      <c r="H76" s="24">
+        <v>155</v>
+      </c>
+      <c r="I76" s="24">
+        <v>155</v>
+      </c>
+      <c r="J76" s="24">
+        <v>155</v>
+      </c>
+      <c r="K76" s="24">
+        <v>155</v>
+      </c>
+      <c r="L76" s="24">
+        <v>155</v>
+      </c>
       <c r="M76" s="34"/>
       <c r="N76" s="25"/>
-      <c r="O76" s="59"/>
-      <c r="P76" s="64"/>
+      <c r="O76" s="59">
+        <v>155</v>
+      </c>
+      <c r="P76" s="64">
+        <v>155</v>
+      </c>
       <c r="Q76" s="39"/>
       <c r="R76" s="43"/>
     </row>
-    <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="18"/>
-      <c r="B77" s="22"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
-      <c r="K77" s="28"/>
-      <c r="L77" s="28"/>
+    <row r="77" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A77" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="C77" s="19">
+        <v>748997484</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="28">
+        <v>155</v>
+      </c>
+      <c r="F77" s="28">
+        <v>155</v>
+      </c>
+      <c r="G77" s="28">
+        <v>155</v>
+      </c>
+      <c r="H77" s="28">
+        <v>155</v>
+      </c>
+      <c r="I77" s="28">
+        <v>155</v>
+      </c>
+      <c r="J77" s="28">
+        <v>155</v>
+      </c>
+      <c r="K77" s="28">
+        <v>155</v>
+      </c>
+      <c r="L77" s="28">
+        <v>155</v>
+      </c>
       <c r="M77" s="34"/>
       <c r="N77" s="25"/>
-      <c r="O77" s="60"/>
-      <c r="P77" s="65"/>
+      <c r="O77" s="60">
+        <v>155</v>
+      </c>
+      <c r="P77" s="65">
+        <v>155</v>
+      </c>
       <c r="Q77" s="39"/>
       <c r="R77" s="43"/>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A78" s="45"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="47"/>
-      <c r="D78" s="48"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
+    <row r="78" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="45" t="s">
+        <v>164</v>
+      </c>
+      <c r="B78" s="46" t="s">
+        <v>165</v>
+      </c>
+      <c r="C78" s="47">
+        <v>726862381</v>
+      </c>
+      <c r="D78" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="E78" s="49" t="s">
+        <v>169</v>
+      </c>
+      <c r="F78" s="49">
+        <v>80</v>
+      </c>
+      <c r="G78" s="49">
+        <v>80</v>
+      </c>
       <c r="H78" s="50"/>
       <c r="I78" s="50"/>
       <c r="J78" s="50"/>
@@ -2593,26 +4994,56 @@
       <c r="L78" s="50"/>
       <c r="M78" s="51"/>
       <c r="N78" s="50"/>
-      <c r="O78" s="69"/>
+      <c r="O78" s="69">
+        <v>80</v>
+      </c>
       <c r="P78" s="66"/>
       <c r="Q78" s="57"/>
       <c r="R78" s="52"/>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A79" s="53"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="53"/>
-      <c r="D79" s="55"/>
-      <c r="E79" s="55"/>
-      <c r="F79" s="55"/>
-      <c r="G79" s="55"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="56"/>
-      <c r="N79" s="55"/>
+    <row r="79" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A79" s="53" t="s">
+        <v>166</v>
+      </c>
+      <c r="B79" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C79" s="53">
+        <v>729973839</v>
+      </c>
+      <c r="D79" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="E79" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="G79" s="55">
+        <v>155</v>
+      </c>
+      <c r="H79" s="55">
+        <v>155</v>
+      </c>
+      <c r="I79" s="55">
+        <v>155</v>
+      </c>
+      <c r="J79" s="55">
+        <v>155</v>
+      </c>
+      <c r="K79" s="55">
+        <v>155</v>
+      </c>
+      <c r="L79" s="55">
+        <v>155</v>
+      </c>
+      <c r="M79" s="56">
+        <v>155</v>
+      </c>
+      <c r="N79" s="55">
+        <v>155</v>
+      </c>
       <c r="O79" s="61"/>
       <c r="P79" s="67"/>
       <c r="Q79" s="57"/>
@@ -2620,7 +5051,14 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:S79" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="A30" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{14C37E27-C2E9-4B5E-9D5E-B7FA446D310A}"/>
+    <hyperlink ref="A56" r:id="rId2" display="mailto:oanacovaliu89@gmail.com" xr:uid="{CD048FFE-3993-4F9A-9C85-2313921303E1}"/>
+    <hyperlink ref="A58" r:id="rId3" display="mailto:gabichim1@yahoo.com" xr:uid="{34BADA3D-F8C1-4091-BFC5-C5ED726FE8CE}"/>
+    <hyperlink ref="A62" r:id="rId4" display="mailto:doinitakineto@yahoo.com" xr:uid="{4EAC9DF6-662E-4603-8A3D-D78877DFA6A1}"/>
+    <hyperlink ref="A66" r:id="rId5" display="mailto:cristinasanduv87@gmail.com" xr:uid="{B28C9CBB-7945-4A5A-AAF0-1B54D25BE40E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/app/fisierele/an32324.xlsx
+++ b/app/fisierele/an32324.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ia\app\fisierele\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F840A1-6FDD-4560-992C-2ADF17DB3573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478F9EC8-969C-4A40-AF9B-4D79CADF354F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plati an 4" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -87,13 +87,25 @@
     <t>arthadora2012@gmail.com</t>
   </si>
   <si>
-    <t>lilabhoga@gmail.com</t>
-  </si>
-  <si>
-    <t>Galatus Ramona</t>
-  </si>
-  <si>
     <t>Craciun Corina Liana</t>
+  </si>
+  <si>
+    <t>Rus Maria</t>
+  </si>
+  <si>
+    <t>rusmaria77@yahoo.com</t>
+  </si>
+  <si>
+    <t>olga_n22@inbox.ru</t>
+  </si>
+  <si>
+    <t>Novojen Olga</t>
+  </si>
+  <si>
+    <t>dorinacarp@yahoo.ca</t>
+  </si>
+  <si>
+    <t>Carp Dorina</t>
   </si>
 </sst>
 </file>
@@ -199,7 +211,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -267,12 +279,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -365,6 +401,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -650,7 +698,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -709,15 +757,13 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="31">
-        <v>729130770</v>
-      </c>
+      <c r="C2" s="31"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
@@ -730,19 +776,17 @@
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
       <c r="O2" s="27">
-        <v>80</v>
+        <v>-155</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="31">
-        <v>722752007</v>
-      </c>
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="31"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -755,12 +799,16 @@
       <c r="M3" s="17"/>
       <c r="N3" s="19"/>
       <c r="O3" s="28">
-        <v>80</v>
+        <v>-55</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
+      <c r="A4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>22</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -773,11 +821,17 @@
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
       <c r="N4" s="19"/>
-      <c r="O4" s="28"/>
+      <c r="O4" s="28">
+        <v>-155</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>16</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -790,10 +844,12 @@
       <c r="L5" s="17"/>
       <c r="M5" s="17"/>
       <c r="N5" s="19"/>
-      <c r="O5" s="28"/>
+      <c r="O5" s="28">
+        <v>-80</v>
+      </c>
     </row>
     <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="17"/>
@@ -2000,9 +2056,7 @@
       <c r="O76" s="29"/>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A77" s="31" t="s">
-        <v>15</v>
-      </c>
+      <c r="A77" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/app/fisierele/an32324.xlsx
+++ b/app/fisierele/an32324.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 4_2024-2025 ayurveda\pentru IULIAN\Facturi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F5ADA2-AEC4-4D7D-9322-C47B7B8F71A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5240376C-8CFB-48BB-87E3-C5A3EA9C79F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1089,9 +1089,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3014,11 +3014,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{46F5A473-3D71-432E-AB1A-61FB04545431}"/>
-    <hyperlink ref="A54" r:id="rId2" display="mailto:gabichim1@yahoo.com" xr:uid="{23A35389-0B45-4FBA-A2F5-913FC38D6FB3}"/>
-    <hyperlink ref="A57" r:id="rId3" display="mailto:doinitakineto@yahoo.com" xr:uid="{6F52CF1C-1A00-46CA-8543-DA39B7FCE6BC}"/>
-    <hyperlink ref="A60" r:id="rId4" display="mailto:cristinasanduv87@gmail.com" xr:uid="{9BCA70AD-CABC-41E2-ADA0-FCC568FD2648}"/>
-    <hyperlink ref="A76" r:id="rId5" display="mailto:lilabhoga@gmail.com" xr:uid="{344D317E-D63E-4738-BDCE-5B7044902AAF}"/>
+    <hyperlink ref="A29" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{41C173A1-8B28-4956-B98E-C5658B3B1418}"/>
+    <hyperlink ref="A54" r:id="rId2" display="mailto:gabichim1@yahoo.com" xr:uid="{1FB1872F-8ABC-4306-9DF6-62ED87DD69D5}"/>
+    <hyperlink ref="A57" r:id="rId3" display="mailto:doinitakineto@yahoo.com" xr:uid="{B53EEE56-A249-4888-828A-FC99EFE68974}"/>
+    <hyperlink ref="A60" r:id="rId4" display="mailto:cristinasanduv87@gmail.com" xr:uid="{DA2B27CF-8990-4279-BBDB-0AC28320C708}"/>
+    <hyperlink ref="A76" r:id="rId5" display="mailto:lilabhoga@gmail.com" xr:uid="{64CBBC2D-2E17-408C-8B86-A09C3070CE6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/app/fisierele/an32324.xlsx
+++ b/app/fisierele/an32324.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 4_2024-2025 ayurveda\pentru IULIAN\Facturi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5240376C-8CFB-48BB-87E3-C5A3EA9C79F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0F321A-744B-4B83-AC9F-1F40B2733B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="facturi an 4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'facturi an 4'!$A$1:$P$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'facturi an 4'!$A$1:$P$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -415,12 +415,6 @@
   </si>
   <si>
     <t>Lankelin Valentina Maria</t>
-  </si>
-  <si>
-    <t>marinescurebecca4@gmail.com</t>
-  </si>
-  <si>
-    <t>Marinescu Rebecca Ana</t>
   </si>
   <si>
     <t>aurvasilica@mail.ru</t>
@@ -1087,11 +1081,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N7" sqref="N7"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1113,40 +1107,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>150</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="L1" s="26" t="s">
         <v>153</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="M1" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="M1" s="26" t="s">
+      <c r="N1" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="O1" s="27" t="s">
         <v>156</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="O1" s="27" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1774,10 +1768,10 @@
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C27" s="7">
         <v>764888445</v>
@@ -2372,10 +2366,10 @@
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C51" s="15">
         <v>37369208608</v>
@@ -2500,7 +2494,7 @@
         <v>107</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C56" s="7">
         <v>740759994</v>
@@ -2753,7 +2747,7 @@
         <v>127</v>
       </c>
       <c r="C66" s="7">
-        <v>786602562</v>
+        <v>37379117788</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
@@ -2767,7 +2761,7 @@
       <c r="M66" s="18"/>
       <c r="N66" s="20"/>
       <c r="O66" s="29">
-        <v>155</v>
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2778,21 +2772,21 @@
         <v>129</v>
       </c>
       <c r="C67" s="7">
-        <v>37379117788</v>
+        <v>741228820</v>
       </c>
       <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="20"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
       <c r="O67" s="29">
-        <v>55</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2803,7 +2797,7 @@
         <v>131</v>
       </c>
       <c r="C68" s="7">
-        <v>741228820</v>
+        <v>741178279</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="19"/>
@@ -2821,14 +2815,14 @@
       </c>
     </row>
     <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="7">
-        <v>741178279</v>
+      <c r="A69" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="15">
+        <v>722752007</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="19"/>
@@ -2841,32 +2835,32 @@
       <c r="L69" s="19"/>
       <c r="M69" s="19"/>
       <c r="N69" s="19"/>
-      <c r="O69" s="29">
-        <v>155</v>
-      </c>
+      <c r="O69" s="31"/>
     </row>
     <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>160</v>
+        <v>132</v>
+      </c>
+      <c r="B70" s="17" t="s">
+        <v>133</v>
       </c>
       <c r="C70" s="15">
-        <v>722752007</v>
+        <v>748997484</v>
       </c>
       <c r="D70" s="18"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="31"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="20"/>
+      <c r="O70" s="30">
+        <v>155</v>
+      </c>
     </row>
     <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="14" t="s">
@@ -2876,24 +2870,24 @@
         <v>135</v>
       </c>
       <c r="C71" s="15">
-        <v>748997484</v>
+        <v>726862381</v>
       </c>
       <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="20"/>
+      <c r="E71" s="19"/>
+      <c r="F71" s="19"/>
+      <c r="G71" s="19"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="19"/>
+      <c r="M71" s="19"/>
+      <c r="N71" s="19"/>
       <c r="O71" s="30">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="14" t="s">
         <v>136</v>
       </c>
@@ -2901,33 +2895,31 @@
         <v>137</v>
       </c>
       <c r="C72" s="15">
-        <v>726862381</v>
+        <v>729973839</v>
       </c>
       <c r="D72" s="18"/>
-      <c r="E72" s="19"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="19"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="19"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="19"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="20"/>
       <c r="O72" s="30">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="14" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="B73" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="15">
-        <v>729973839</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C73" s="32"/>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
       <c r="F73" s="18"/>
@@ -2939,18 +2931,18 @@
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
       <c r="N73" s="20"/>
-      <c r="O73" s="30">
-        <v>155</v>
-      </c>
+      <c r="O73" s="31"/>
     </row>
     <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="14" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C74" s="32"/>
+        <v>144</v>
+      </c>
+      <c r="C74" s="15">
+        <v>723380580</v>
+      </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
       <c r="F74" s="18"/>
@@ -2962,18 +2954,18 @@
       <c r="L74" s="18"/>
       <c r="M74" s="18"/>
       <c r="N74" s="20"/>
-      <c r="O74" s="31"/>
+      <c r="O74" s="30">
+        <v>155</v>
+      </c>
     </row>
     <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" s="15">
-        <v>723380580</v>
-      </c>
+      <c r="A75" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="C75" s="32"/>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
       <c r="F75" s="18"/>
@@ -2986,29 +2978,6 @@
       <c r="M75" s="18"/>
       <c r="N75" s="20"/>
       <c r="O75" s="30">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A76" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B76" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="18"/>
-      <c r="E76" s="18"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="18"/>
-      <c r="I76" s="18"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="18"/>
-      <c r="L76" s="18"/>
-      <c r="M76" s="18"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="30">
         <v>80</v>
       </c>
     </row>
@@ -3018,7 +2987,7 @@
     <hyperlink ref="A54" r:id="rId2" display="mailto:gabichim1@yahoo.com" xr:uid="{1FB1872F-8ABC-4306-9DF6-62ED87DD69D5}"/>
     <hyperlink ref="A57" r:id="rId3" display="mailto:doinitakineto@yahoo.com" xr:uid="{B53EEE56-A249-4888-828A-FC99EFE68974}"/>
     <hyperlink ref="A60" r:id="rId4" display="mailto:cristinasanduv87@gmail.com" xr:uid="{DA2B27CF-8990-4279-BBDB-0AC28320C708}"/>
-    <hyperlink ref="A76" r:id="rId5" display="mailto:lilabhoga@gmail.com" xr:uid="{64CBBC2D-2E17-408C-8B86-A09C3070CE6B}"/>
+    <hyperlink ref="A75" r:id="rId5" display="mailto:lilabhoga@gmail.com" xr:uid="{64CBBC2D-2E17-408C-8B86-A09C3070CE6B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>

--- a/app/fisierele/an32324.xlsx
+++ b/app/fisierele/an32324.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\__an 4_2024-2025 ayurveda\pentru IULIAN\Facturi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E0F321A-744B-4B83-AC9F-1F40B2733B02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A56BEDC-1071-43FB-9B12-18256E59A921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="facturi an 4" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'facturi an 4'!$A$1:$P$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'facturi an 4'!$A$1:$P$68</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>Adresa de e-mail</t>
   </si>
@@ -72,12 +72,6 @@
     <t>Neagu Carmen-Mariana</t>
   </si>
   <si>
-    <t>sorina_fekeas@yahoo.de</t>
-  </si>
-  <si>
-    <t>Fekeas Sorina</t>
-  </si>
-  <si>
     <t>daciamighiu@yahoo.com</t>
   </si>
   <si>
@@ -96,12 +90,6 @@
     <t>Ilie Laura</t>
   </si>
   <si>
-    <t>irinaaniculae@gmail.com</t>
-  </si>
-  <si>
-    <t>Niculae Irina</t>
-  </si>
-  <si>
     <t>gabriela.malonyai@gmail.com</t>
   </si>
   <si>
@@ -180,12 +168,6 @@
     <t>Grozea Loredana</t>
   </si>
   <si>
-    <t>hb_andrea@yahoo.com</t>
-  </si>
-  <si>
-    <t>Hampel Binder Andrea Eniko</t>
-  </si>
-  <si>
     <t>maria77ro@yahoo.com</t>
   </si>
   <si>
@@ -312,12 +294,6 @@
     <t>Moldovan Dan</t>
   </si>
   <si>
-    <t>viomih@yahoo.com</t>
-  </si>
-  <si>
-    <t>Simion Viorica</t>
-  </si>
-  <si>
     <t>condratdaniela@yahoo.com</t>
   </si>
   <si>
@@ -360,9 +336,6 @@
     <t>Orosz Rodica</t>
   </si>
   <si>
-    <t>uviorica@gmail.com</t>
-  </si>
-  <si>
     <t>doinitakineto@yahoo.com</t>
   </si>
   <si>
@@ -415,12 +388,6 @@
   </si>
   <si>
     <t>Lankelin Valentina Maria</t>
-  </si>
-  <si>
-    <t>aurvasilica@mail.ru</t>
-  </si>
-  <si>
-    <t>Vasilica Aurelia</t>
   </si>
   <si>
     <t>florynn85@yahoo.com</t>
@@ -454,19 +421,10 @@
 Istodorescu Lidia</t>
   </si>
   <si>
-    <t>danaiza2000@yahoo.com</t>
-  </si>
-  <si>
-    <t>Georghiou Izabel</t>
-  </si>
-  <si>
     <t>ocojocaru333@gmail.com</t>
   </si>
   <si>
     <t>Cojocaru Olga</t>
-  </si>
-  <si>
-    <t>Ungurean Viorica Malai</t>
   </si>
   <si>
     <t>lucia.marchis@yahoo.com</t>
@@ -1081,11 +1039,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O75"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1107,40 +1065,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>145</v>
+        <v>131</v>
       </c>
       <c r="E1" s="25" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="G1" s="26" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="H1" s="26" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="I1" s="26" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="J1" s="26" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="L1" s="26" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="M1" s="26" t="s">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="N1" s="26" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="O1" s="27" t="s">
-        <v>156</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1226,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="7">
-        <v>729142747</v>
+        <v>33668109988</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -1251,7 +1209,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="7">
-        <v>33668109988</v>
+        <v>755662099</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="19"/>
@@ -1269,14 +1227,14 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="7">
-        <v>755662099</v>
+      <c r="C7" s="13">
+        <v>758573056</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -1294,14 +1252,14 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="13">
-        <v>758573056</v>
+      <c r="C8" s="7">
+        <v>752015542</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -1326,7 +1284,7 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>751982719</v>
+        <v>752094420</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="19"/>
@@ -1351,7 +1309,7 @@
         <v>22</v>
       </c>
       <c r="C10" s="7">
-        <v>752015542</v>
+        <v>12032470380</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -1376,7 +1334,7 @@
         <v>24</v>
       </c>
       <c r="C11" s="7">
-        <v>752094420</v>
+        <v>749221731</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -1401,7 +1359,7 @@
         <v>26</v>
       </c>
       <c r="C12" s="7">
-        <v>12032470380</v>
+        <v>767086957</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -1426,7 +1384,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="7">
-        <v>749221731</v>
+        <v>726333128</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -1451,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>767086957</v>
+        <v>743554064</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -1476,7 +1434,7 @@
         <v>32</v>
       </c>
       <c r="C15" s="7">
-        <v>726333128</v>
+        <v>748702514</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -1501,7 +1459,7 @@
         <v>34</v>
       </c>
       <c r="C16" s="7">
-        <v>743554064</v>
+        <v>735981273</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="19"/>
@@ -1515,7 +1473,7 @@
       <c r="M16" s="19"/>
       <c r="N16" s="19"/>
       <c r="O16" s="29">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1526,7 +1484,7 @@
         <v>36</v>
       </c>
       <c r="C17" s="7">
-        <v>748702514</v>
+        <v>729677945</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -1551,7 +1509,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="7">
-        <v>735981273</v>
+        <v>758527832</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -1565,18 +1523,18 @@
       <c r="M18" s="18"/>
       <c r="N18" s="20"/>
       <c r="O18" s="29">
-        <v>135</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="7">
-        <v>729677945</v>
+      <c r="C19" s="15">
+        <v>741573383</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -1589,9 +1547,7 @@
       <c r="L19" s="18"/>
       <c r="M19" s="18"/>
       <c r="N19" s="20"/>
-      <c r="O19" s="29">
-        <v>155</v>
-      </c>
+      <c r="O19" s="31"/>
     </row>
     <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6" t="s">
@@ -1601,7 +1557,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="7">
-        <v>758527832</v>
+        <v>740136283</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="19"/>
@@ -1619,14 +1575,14 @@
       </c>
     </row>
     <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="15">
-        <v>741573383</v>
+      <c r="C21" s="7">
+        <v>745081557</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -1639,7 +1595,9 @@
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
       <c r="N21" s="20"/>
-      <c r="O21" s="31"/>
+      <c r="O21" s="29">
+        <v>155</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6" t="s">
@@ -1649,7 +1607,7 @@
         <v>46</v>
       </c>
       <c r="C22" s="7">
-        <v>740136283</v>
+        <v>744761408</v>
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
@@ -1674,7 +1632,7 @@
         <v>48</v>
       </c>
       <c r="C23" s="7">
-        <v>752240280</v>
+        <v>756318760</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -1699,7 +1657,7 @@
         <v>50</v>
       </c>
       <c r="C24" s="7">
-        <v>745081557</v>
+        <v>755931135</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="19"/>
@@ -1717,14 +1675,14 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C25" s="7">
-        <v>744761408</v>
+        <v>33782781442</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -1749,7 +1707,7 @@
         <v>54</v>
       </c>
       <c r="C26" s="7">
-        <v>756318760</v>
+        <v>730913443</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -1768,13 +1726,13 @@
     </row>
     <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="6" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="C27" s="7">
-        <v>764888445</v>
+        <v>751709016</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -1793,13 +1751,13 @@
     </row>
     <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="7">
-        <v>755931135</v>
+        <v>773787056</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -1817,14 +1775,14 @@
       </c>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="16" t="s">
-        <v>57</v>
+      <c r="A29" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="7">
-        <v>33782781442</v>
+        <v>749020388</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -1843,13 +1801,13 @@
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="7">
-        <v>730913443</v>
+        <v>743229325</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -1868,13 +1826,13 @@
     </row>
     <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="6" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="C31" s="7">
-        <v>751709016</v>
+        <v>724560970</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -1899,7 +1857,7 @@
         <v>64</v>
       </c>
       <c r="C32" s="7">
-        <v>773787056</v>
+        <v>751343396</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -1924,7 +1882,7 @@
         <v>66</v>
       </c>
       <c r="C33" s="7">
-        <v>749020388</v>
+        <v>747601279</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="19"/>
@@ -1949,7 +1907,7 @@
         <v>68</v>
       </c>
       <c r="C34" s="7">
-        <v>743229325</v>
+        <v>743241140</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -1968,13 +1926,13 @@
     </row>
     <row r="35" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="6" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C35" s="7">
-        <v>724560970</v>
+        <v>732009826</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="19"/>
@@ -1993,13 +1951,13 @@
     </row>
     <row r="36" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="7">
-        <v>751343396</v>
+        <v>771756831</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -2018,13 +1976,13 @@
     </row>
     <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" s="7">
-        <v>747601279</v>
+        <v>748883235</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
@@ -2043,13 +2001,13 @@
     </row>
     <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="7">
-        <v>743241140</v>
+        <v>771143821</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -2063,18 +2021,18 @@
       <c r="M38" s="18"/>
       <c r="N38" s="20"/>
       <c r="O38" s="29">
-        <v>155</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" s="7">
-        <v>732009826</v>
+        <v>742201134</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -2093,13 +2051,13 @@
     </row>
     <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C40" s="7">
-        <v>771756831</v>
+        <v>731453375</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
@@ -2118,13 +2076,13 @@
     </row>
     <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C41" s="7">
-        <v>748883235</v>
+        <v>41793609481</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="19"/>
@@ -2143,13 +2101,13 @@
     </row>
     <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C42" s="7">
-        <v>771143821</v>
+        <v>723385958</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -2163,18 +2121,18 @@
       <c r="M42" s="18"/>
       <c r="N42" s="20"/>
       <c r="O42" s="29">
-        <v>80</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C43" s="7">
-        <v>742201134</v>
+        <v>720049170</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
@@ -2193,13 +2151,13 @@
     </row>
     <row r="44" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C44" s="7">
-        <v>731453375</v>
+        <v>410779995351</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -2217,14 +2175,14 @@
       </c>
     </row>
     <row r="45" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="7">
-        <v>41793609481</v>
+      <c r="A45" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="15">
+        <v>7796402501</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="19"/>
@@ -2237,19 +2195,17 @@
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
-      <c r="O45" s="29">
-        <v>155</v>
-      </c>
+      <c r="O45" s="31"/>
     </row>
     <row r="46" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C46" s="7">
-        <v>723385958</v>
+      <c r="A46" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" s="15">
+        <v>37369208608</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
@@ -2262,8 +2218,8 @@
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
       <c r="N46" s="20"/>
-      <c r="O46" s="29">
-        <v>155</v>
+      <c r="O46" s="30">
+        <v>55</v>
       </c>
     </row>
     <row r="47" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -2274,7 +2230,7 @@
         <v>92</v>
       </c>
       <c r="C47" s="7">
-        <v>744112116</v>
+        <v>757678280</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
@@ -2299,7 +2255,7 @@
         <v>94</v>
       </c>
       <c r="C48" s="7">
-        <v>720049170</v>
+        <v>744705023</v>
       </c>
       <c r="D48" s="23"/>
       <c r="E48" s="20"/>
@@ -2317,14 +2273,14 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>96</v>
       </c>
       <c r="C49" s="7">
-        <v>410779995351</v>
+        <v>742083396</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
@@ -2342,14 +2298,14 @@
       </c>
     </row>
     <row r="50" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="15">
-        <v>7796402501</v>
+      <c r="C50" s="7">
+        <v>751700208</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="19"/>
@@ -2362,17 +2318,19 @@
       <c r="L50" s="19"/>
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
-      <c r="O50" s="31"/>
+      <c r="O50" s="29">
+        <v>155</v>
+      </c>
     </row>
     <row r="51" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="15">
-        <v>37369208608</v>
+      <c r="A51" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="7">
+        <v>726489020</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="19"/>
@@ -2385,19 +2343,19 @@
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
-      <c r="O51" s="30">
-        <v>55</v>
+      <c r="O51" s="29">
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C52" s="7">
-        <v>757678280</v>
+        <v>745525405</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
@@ -2416,13 +2374,13 @@
     </row>
     <row r="53" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C53" s="7">
-        <v>744705023</v>
+        <v>740074538</v>
       </c>
       <c r="D53" s="21"/>
       <c r="E53" s="22"/>
@@ -2441,13 +2399,13 @@
     </row>
     <row r="54" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C54" s="7">
-        <v>742083396</v>
+        <v>31687728451</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
@@ -2461,18 +2419,18 @@
       <c r="M54" s="18"/>
       <c r="N54" s="20"/>
       <c r="O54" s="29">
-        <v>155</v>
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C55" s="7">
-        <v>751700208</v>
+        <v>373069265735</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
@@ -2486,18 +2444,18 @@
       <c r="M55" s="18"/>
       <c r="N55" s="20"/>
       <c r="O55" s="29">
-        <v>155</v>
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
       <c r="C56" s="7">
-        <v>740759994</v>
+        <v>740186024</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="19"/>
@@ -2515,14 +2473,14 @@
       </c>
     </row>
     <row r="57" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="16" t="s">
-        <v>108</v>
+      <c r="A57" s="6" t="s">
+        <v>111</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C57" s="7">
-        <v>726489020</v>
+        <v>37379706120</v>
       </c>
       <c r="D57" s="23"/>
       <c r="E57" s="20"/>
@@ -2536,18 +2494,18 @@
       <c r="M57" s="20"/>
       <c r="N57" s="20"/>
       <c r="O57" s="29">
-        <v>155</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="6" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C58" s="7">
-        <v>745525405</v>
+        <v>37361183234</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -2561,18 +2519,18 @@
       <c r="M58" s="18"/>
       <c r="N58" s="20"/>
       <c r="O58" s="29">
-        <v>155</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C59" s="7">
-        <v>740074538</v>
+        <v>358406402278</v>
       </c>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
@@ -2590,14 +2548,14 @@
       </c>
     </row>
     <row r="60" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="16" t="s">
-        <v>114</v>
+      <c r="A60" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C60" s="7">
-        <v>31687728451</v>
+        <v>741228820</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
@@ -2611,18 +2569,18 @@
       <c r="M60" s="18"/>
       <c r="N60" s="20"/>
       <c r="O60" s="29">
-        <v>55</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="6" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C61" s="7">
-        <v>373069265735</v>
+        <v>741178279</v>
       </c>
       <c r="D61" s="23"/>
       <c r="E61" s="20"/>
@@ -2636,18 +2594,18 @@
       <c r="M61" s="20"/>
       <c r="N61" s="20"/>
       <c r="O61" s="29">
-        <v>55</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C62" s="7">
-        <v>740186024</v>
+      <c r="A62" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="15">
+        <v>722752007</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
@@ -2660,19 +2618,17 @@
       <c r="L62" s="18"/>
       <c r="M62" s="18"/>
       <c r="N62" s="20"/>
-      <c r="O62" s="29">
-        <v>155</v>
-      </c>
+      <c r="O62" s="31"/>
     </row>
     <row r="63" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B63" s="7" t="s">
+      <c r="A63" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="C63" s="7">
-        <v>37379706120</v>
+      <c r="B63" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="15">
+        <v>748997484</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
@@ -2685,19 +2641,19 @@
       <c r="L63" s="18"/>
       <c r="M63" s="18"/>
       <c r="N63" s="20"/>
-      <c r="O63" s="29">
-        <v>55</v>
+      <c r="O63" s="30">
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B64" s="7" t="s">
+      <c r="A64" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="C64" s="7">
-        <v>37361183234</v>
+      <c r="B64" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="15">
+        <v>726862381</v>
       </c>
       <c r="D64" s="23"/>
       <c r="E64" s="20"/>
@@ -2710,19 +2666,19 @@
       <c r="L64" s="20"/>
       <c r="M64" s="20"/>
       <c r="N64" s="20"/>
-      <c r="O64" s="29">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" s="7" t="s">
+      <c r="O64" s="30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="C65" s="7">
-        <v>358406402278</v>
+      <c r="B65" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="15">
+        <v>729973839</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
@@ -2735,20 +2691,18 @@
       <c r="L65" s="18"/>
       <c r="M65" s="18"/>
       <c r="N65" s="20"/>
-      <c r="O65" s="29">
+      <c r="O65" s="30">
         <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="7">
-        <v>37379117788</v>
-      </c>
+      <c r="A66" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C66" s="32"/>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
       <c r="F66" s="18"/>
@@ -2760,19 +2714,17 @@
       <c r="L66" s="18"/>
       <c r="M66" s="18"/>
       <c r="N66" s="20"/>
-      <c r="O66" s="29">
-        <v>55</v>
-      </c>
+      <c r="O66" s="31"/>
     </row>
     <row r="67" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="A67" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="C67" s="7">
-        <v>741228820</v>
+      <c r="B67" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" s="15">
+        <v>723380580</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="19"/>
@@ -2785,20 +2737,18 @@
       <c r="L67" s="19"/>
       <c r="M67" s="19"/>
       <c r="N67" s="19"/>
-      <c r="O67" s="29">
+      <c r="O67" s="30">
         <v>155</v>
       </c>
     </row>
     <row r="68" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="7">
-        <v>741178279</v>
-      </c>
+      <c r="A68" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="32"/>
       <c r="D68" s="18"/>
       <c r="E68" s="19"/>
       <c r="F68" s="19"/>
@@ -2810,184 +2760,17 @@
       <c r="L68" s="19"/>
       <c r="M68" s="19"/>
       <c r="N68" s="19"/>
-      <c r="O68" s="29">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B69" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" s="15">
-        <v>722752007</v>
-      </c>
-      <c r="D69" s="18"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="19"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="19"/>
-      <c r="M69" s="19"/>
-      <c r="N69" s="19"/>
-      <c r="O69" s="31"/>
-    </row>
-    <row r="70" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="15">
-        <v>748997484</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="30">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A71" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C71" s="15">
-        <v>726862381</v>
-      </c>
-      <c r="D71" s="18"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="30">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A72" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C72" s="15">
-        <v>729973839</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="30">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A73" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="32"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="31"/>
-    </row>
-    <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A74" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C74" s="15">
-        <v>723380580</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="18"/>
-      <c r="I74" s="18"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="18"/>
-      <c r="L74" s="18"/>
-      <c r="M74" s="18"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="30">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A75" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="30">
+      <c r="O68" s="30">
         <v>80</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{41C173A1-8B28-4956-B98E-C5658B3B1418}"/>
-    <hyperlink ref="A54" r:id="rId2" display="mailto:gabichim1@yahoo.com" xr:uid="{1FB1872F-8ABC-4306-9DF6-62ED87DD69D5}"/>
-    <hyperlink ref="A57" r:id="rId3" display="mailto:doinitakineto@yahoo.com" xr:uid="{B53EEE56-A249-4888-828A-FC99EFE68974}"/>
-    <hyperlink ref="A60" r:id="rId4" display="mailto:cristinasanduv87@gmail.com" xr:uid="{DA2B27CF-8990-4279-BBDB-0AC28320C708}"/>
-    <hyperlink ref="A75" r:id="rId5" display="mailto:lilabhoga@gmail.com" xr:uid="{64CBBC2D-2E17-408C-8B86-A09C3070CE6B}"/>
+    <hyperlink ref="A25" r:id="rId1" display="mailto:vali.grigore@icloud.com" xr:uid="{6A01A994-8C5C-4EEB-963A-CCE4EC2A177D}"/>
+    <hyperlink ref="A49" r:id="rId2" display="mailto:gabichim1@yahoo.com" xr:uid="{B570CE80-FE14-476F-8A16-8CCEC9C88E6B}"/>
+    <hyperlink ref="A51" r:id="rId3" display="mailto:doinitakineto@yahoo.com" xr:uid="{59BDC1AB-F6F8-4D53-9EE4-61F3A7BFCBA4}"/>
+    <hyperlink ref="A54" r:id="rId4" display="mailto:cristinasanduv87@gmail.com" xr:uid="{535C09F3-B471-46AC-94D5-95642647CA36}"/>
+    <hyperlink ref="A68" r:id="rId5" display="mailto:lilabhoga@gmail.com" xr:uid="{57FE5937-0871-479D-AD68-DFBB4A3B6FF5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
